--- a/predictions полгода до/Прогнозы_ETS_CA12dt.xlsx
+++ b/predictions полгода до/Прогнозы_ETS_CA12dt.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M77"/>
+  <dimension ref="A1:M51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,40 +446,40 @@
         </is>
       </c>
       <c r="B1" s="2" t="n">
-        <v>45108</v>
+        <v>45139</v>
       </c>
       <c r="C1" s="2" t="n">
-        <v>45139</v>
+        <v>45170</v>
       </c>
       <c r="D1" s="2" t="n">
-        <v>45170</v>
+        <v>45200</v>
       </c>
       <c r="E1" s="2" t="n">
-        <v>45200</v>
+        <v>45231</v>
       </c>
       <c r="F1" s="2" t="n">
-        <v>45231</v>
+        <v>45261</v>
       </c>
       <c r="G1" s="2" t="n">
-        <v>45261</v>
+        <v>45292</v>
       </c>
       <c r="H1" s="2" t="n">
-        <v>45292</v>
+        <v>45323</v>
       </c>
       <c r="I1" s="2" t="n">
-        <v>45323</v>
+        <v>45352</v>
       </c>
       <c r="J1" s="2" t="n">
-        <v>45352</v>
+        <v>45383</v>
       </c>
       <c r="K1" s="2" t="n">
-        <v>45383</v>
+        <v>45413</v>
       </c>
       <c r="L1" s="2" t="n">
-        <v>45413</v>
+        <v>45444</v>
       </c>
       <c r="M1" s="2" t="n">
-        <v>45444</v>
+        <v>45474</v>
       </c>
     </row>
     <row r="2">
@@ -489,40 +489,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>20572563.73820892</v>
+        <v>20089382.39882398</v>
       </c>
       <c r="C2" t="n">
-        <v>20440368.46563985</v>
+        <v>19403827.03163514</v>
       </c>
       <c r="D2" t="n">
-        <v>19888348.50985856</v>
+        <v>19451509.0922645</v>
       </c>
       <c r="E2" t="n">
-        <v>20053767.30220715</v>
+        <v>19564402.47645282</v>
       </c>
       <c r="F2" t="n">
-        <v>20268641.24319311</v>
+        <v>19922610.50618786</v>
       </c>
       <c r="G2" t="n">
-        <v>20714280.52893262</v>
+        <v>15492683.62309413</v>
       </c>
       <c r="H2" t="n">
-        <v>16358044.52429612</v>
+        <v>18548762.45400842</v>
       </c>
       <c r="I2" t="n">
-        <v>19482677.55343184</v>
+        <v>19341281.72559602</v>
       </c>
       <c r="J2" t="n">
-        <v>20325849.5310833</v>
+        <v>17795357.76941412</v>
       </c>
       <c r="K2" t="n">
-        <v>18818013.68562959</v>
+        <v>16262208.74265526</v>
       </c>
       <c r="L2" t="n">
-        <v>17315109.84170201</v>
+        <v>16549315.25774892</v>
       </c>
       <c r="M2" t="n">
-        <v>17624616.809719</v>
+        <v>16219777.59198136</v>
       </c>
     </row>
     <row r="3">
@@ -532,3222 +532,2104 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>11120916.32368848</v>
+        <v>8735864.831976991</v>
       </c>
       <c r="C3" t="n">
-        <v>11643387.70206568</v>
+        <v>8761950.940813988</v>
       </c>
       <c r="D3" t="n">
-        <v>12408335.93724811</v>
+        <v>8814827.310316833</v>
       </c>
       <c r="E3" t="n">
-        <v>13111053.64598383</v>
+        <v>8789492.770676289</v>
       </c>
       <c r="F3" t="n">
-        <v>13660938.28092412</v>
+        <v>9513817.773975404</v>
       </c>
       <c r="G3" t="n">
-        <v>14900277.62321742</v>
+        <v>8341818.638860543</v>
       </c>
       <c r="H3" t="n">
-        <v>14164486.03716382</v>
+        <v>8249767.987197369</v>
       </c>
       <c r="I3" t="n">
-        <v>14513678.82110704</v>
+        <v>10448173.82123443</v>
       </c>
       <c r="J3" t="n">
-        <v>17092365.30790707</v>
+        <v>8542993.347370192</v>
       </c>
       <c r="K3" t="n">
-        <v>15435184.71947785</v>
+        <v>9356358.031621529</v>
       </c>
       <c r="L3" t="n">
-        <v>16559467.00813282</v>
+        <v>8472302.560496092</v>
       </c>
       <c r="M3" t="n">
-        <v>15904849.37318847</v>
+        <v>7893168.368180345</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>ИПР Актобе (Kz)</t>
+          <t>Отдел Ковригин  (Kz)</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>4881784.29871578</v>
+        <v>15203330.16774677</v>
       </c>
       <c r="C4" t="n">
-        <v>4479051.15774247</v>
+        <v>19725235.27944988</v>
       </c>
       <c r="D4" t="n">
-        <v>4931226.455282622</v>
+        <v>23764327.62393978</v>
       </c>
       <c r="E4" t="n">
-        <v>5060826.77716379</v>
+        <v>27432561.8174573</v>
       </c>
       <c r="F4" t="n">
-        <v>5020926.035114387</v>
+        <v>31205220.69538658</v>
       </c>
       <c r="G4" t="n">
-        <v>5256944.899039425</v>
+        <v>34273032.34862578</v>
       </c>
       <c r="H4" t="n">
-        <v>4950080.540599885</v>
+        <v>37442567.36714647</v>
       </c>
       <c r="I4" t="n">
-        <v>4928789.8526015</v>
+        <v>40131482.82904433</v>
       </c>
       <c r="J4" t="n">
-        <v>4574587.590383443</v>
+        <v>43473682.11305632</v>
       </c>
       <c r="K4" t="n">
-        <v>5026914.478646779</v>
+        <v>46396391.08376639</v>
       </c>
       <c r="L4" t="n">
-        <v>5046373.620249531</v>
+        <v>49896657.69311351</v>
       </c>
       <c r="M4" t="n">
-        <v>5584874.426402667</v>
+        <v>53177902.43925095</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>ИПР Павлодар (Kz)</t>
+          <t>Отдел Концевой</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3900323.058178097</v>
+        <v>22464519.40887341</v>
       </c>
       <c r="C5" t="n">
-        <v>5359805.367619194</v>
+        <v>24236993.00354085</v>
       </c>
       <c r="D5" t="n">
-        <v>6757999.499149711</v>
+        <v>24718445.74446236</v>
       </c>
       <c r="E5" t="n">
-        <v>8096141.173153818</v>
+        <v>26623759.54774391</v>
       </c>
       <c r="F5" t="n">
-        <v>9375429.166579098</v>
+        <v>36343499.40573551</v>
       </c>
       <c r="G5" t="n">
-        <v>10597041.63150024</v>
+        <v>19935911.99837831</v>
       </c>
       <c r="H5" t="n">
-        <v>11762132.84720554</v>
+        <v>29388538.65243498</v>
       </c>
       <c r="I5" t="n">
-        <v>12871831.92298769</v>
+        <v>29802356.26917384</v>
       </c>
       <c r="J5" t="n">
-        <v>13927235.22757747</v>
+        <v>30436374.37242743</v>
       </c>
       <c r="K5" t="n">
-        <v>14949380.09405308</v>
+        <v>31815119.06580679</v>
       </c>
       <c r="L5" t="n">
-        <v>16067732.51596818</v>
+        <v>32824984.17811507</v>
       </c>
       <c r="M5" t="n">
-        <v>17372580.00066864</v>
+        <v>32959751.84905952</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>ИПР Апатиты</t>
+          <t>Отдел Мараев (АлРоса)</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>9105675.069016194</v>
+        <v>2031053.348496435</v>
       </c>
       <c r="C6" t="n">
-        <v>9933343.876217443</v>
+        <v>2855682.269363305</v>
       </c>
       <c r="D6" t="n">
-        <v>10180891.209468</v>
+        <v>1142235.634357558</v>
       </c>
       <c r="E6" t="n">
-        <v>10977626.79782887</v>
+        <v>3134169.945480953</v>
       </c>
       <c r="F6" t="n">
-        <v>11498953.61856337</v>
+        <v>1765692.405964748</v>
       </c>
       <c r="G6" t="n">
-        <v>17173958.27469811</v>
+        <v>1232632.957195408</v>
       </c>
       <c r="H6" t="n">
-        <v>8203450.702154914</v>
+        <v>3285765.375617255</v>
       </c>
       <c r="I6" t="n">
-        <v>13151929.29850244</v>
+        <v>3687792.030010992</v>
       </c>
       <c r="J6" t="n">
-        <v>11356469.23780937</v>
+        <v>2136826.784170667</v>
       </c>
       <c r="K6" t="n">
-        <v>11634562.12557567</v>
+        <v>5402418.282542638</v>
       </c>
       <c r="L6" t="n">
-        <v>13327982.01739989</v>
+        <v>1305903.884217154</v>
       </c>
       <c r="M6" t="n">
-        <v>13129378.45675774</v>
+        <v>2397934.09712548</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>ИПР Балаково</t>
+          <t>Отдел Мищенко (МетИнв)</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2048465.489282803</v>
+        <v>8154735.804073371</v>
       </c>
       <c r="C7" t="n">
-        <v>2221868.726218435</v>
+        <v>7876285.810245148</v>
       </c>
       <c r="D7" t="n">
-        <v>3003754.009735252</v>
+        <v>8417950.80505237</v>
       </c>
       <c r="E7" t="n">
-        <v>2885984.739348639</v>
+        <v>7453795.099806428</v>
       </c>
       <c r="F7" t="n">
-        <v>3020475.949027191</v>
+        <v>7988567.722095605</v>
       </c>
       <c r="G7" t="n">
-        <v>4480452.167754776</v>
+        <v>7421513.993370054</v>
       </c>
       <c r="H7" t="n">
-        <v>1705028.428476573</v>
+        <v>9081353.833807986</v>
       </c>
       <c r="I7" t="n">
-        <v>3183080.768167139</v>
+        <v>10246392.69121458</v>
       </c>
       <c r="J7" t="n">
-        <v>3361859.214655668</v>
+        <v>9289255.874032022</v>
       </c>
       <c r="K7" t="n">
-        <v>3769156.512823157</v>
+        <v>9954009.573311495</v>
       </c>
       <c r="L7" t="n">
-        <v>2761281.99625883</v>
+        <v>8842042.616207063</v>
       </c>
       <c r="M7" t="n">
-        <v>4021126.612277769</v>
+        <v>9066277.896599974</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>ИПР Волхов ФСА</t>
+          <t>Отдел Попов</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1624256.896618411</v>
+        <v>13741970.38321333</v>
       </c>
       <c r="C8" t="n">
-        <v>1394180.959439015</v>
+        <v>16530229.78729725</v>
       </c>
       <c r="D8" t="n">
-        <v>1259147.282957842</v>
+        <v>15906750.9432169</v>
       </c>
       <c r="E8" t="n">
-        <v>1481473.220094782</v>
+        <v>17225125.80841998</v>
       </c>
       <c r="F8" t="n">
-        <v>1948444.463993091</v>
+        <v>23207173.28616512</v>
       </c>
       <c r="G8" t="n">
-        <v>1714137.843597742</v>
+        <v>11237069.62075802</v>
       </c>
       <c r="H8" t="n">
-        <v>850669.1204955276</v>
+        <v>17172594.72706351</v>
       </c>
       <c r="I8" t="n">
-        <v>1254041.045503346</v>
+        <v>18990228.32187161</v>
       </c>
       <c r="J8" t="n">
-        <v>1176032.061474808</v>
+        <v>18493929.80033618</v>
       </c>
       <c r="K8" t="n">
-        <v>1260709.649093223</v>
+        <v>16953582.95908012</v>
       </c>
       <c r="L8" t="n">
-        <v>1203345.653474577</v>
+        <v>17463410.47012924</v>
       </c>
       <c r="M8" t="n">
-        <v>1408994.652155962</v>
+        <v>16974499.77663117</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>ИПР Еврохим УКК</t>
+          <t>Отдел Филиппов</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2595050.711058542</v>
+        <v>24208688.17728623</v>
       </c>
       <c r="C9" t="n">
-        <v>2557183.299258479</v>
+        <v>22886949.16994788</v>
       </c>
       <c r="D9" t="n">
-        <v>2519667.989296583</v>
+        <v>22951241.02982312</v>
       </c>
       <c r="E9" t="n">
-        <v>2482497.359603602</v>
+        <v>22600803.1974204</v>
       </c>
       <c r="F9" t="n">
-        <v>2445664.503030262</v>
+        <v>29108064.44996778</v>
       </c>
       <c r="G9" t="n">
-        <v>2409162.660521759</v>
+        <v>21463859.3949291</v>
       </c>
       <c r="H9" t="n">
-        <v>2373021.141554819</v>
+        <v>22941856.72736207</v>
       </c>
       <c r="I9" t="n">
-        <v>2574507.295727504</v>
+        <v>25380133.46061174</v>
       </c>
       <c r="J9" t="n">
-        <v>2844192.604388833</v>
+        <v>26411372.83864496</v>
       </c>
       <c r="K9" t="n">
-        <v>2943763.134398162</v>
+        <v>27070446.22094802</v>
       </c>
       <c r="L9" t="n">
-        <v>3298530.233755276</v>
+        <v>29483401.45916199</v>
       </c>
       <c r="M9" t="n">
-        <v>2855331.643062169</v>
+        <v>27215878.75916392</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>ИПР Череповец ФСА</t>
+          <t>Отдел Шугай (Русал)</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4745296.510968739</v>
+        <v>26853633.35211397</v>
       </c>
       <c r="C10" t="n">
-        <v>5307339.975138102</v>
+        <v>31851875.48619508</v>
       </c>
       <c r="D10" t="n">
-        <v>5743726.509533738</v>
+        <v>36787595.17426205</v>
       </c>
       <c r="E10" t="n">
-        <v>5052327.526198691</v>
+        <v>41301174.68815091</v>
       </c>
       <c r="F10" t="n">
-        <v>5450454.01677264</v>
+        <v>46029930.7735956</v>
       </c>
       <c r="G10" t="n">
-        <v>7850148.338840563</v>
+        <v>49469322.49646255</v>
       </c>
       <c r="H10" t="n">
-        <v>3828406.128588559</v>
+        <v>53594367.96935666</v>
       </c>
       <c r="I10" t="n">
-        <v>5712533.162619795</v>
+        <v>58480059.20099065</v>
       </c>
       <c r="J10" t="n">
-        <v>7228616.805071468</v>
+        <v>63363402.97364324</v>
       </c>
       <c r="K10" t="n">
-        <v>6644096.282442353</v>
+        <v>67646477.96009171</v>
       </c>
       <c r="L10" t="n">
-        <v>6645169.188831399</v>
+        <v>71001116.17291485</v>
       </c>
       <c r="M10" t="n">
-        <v>6432132.558881282</v>
+        <v>76496369.8856428</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>ИПР Алроса</t>
+          <t>Отдел Ясиновер (УГМК)</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>3592952.441854955</v>
+        <v>15960206.00613495</v>
       </c>
       <c r="C11" t="n">
-        <v>3121600.242297765</v>
+        <v>17063163.22985413</v>
       </c>
       <c r="D11" t="n">
-        <v>4001365.608477251</v>
+        <v>18327273.99519007</v>
       </c>
       <c r="E11" t="n">
-        <v>2387011.305072398</v>
+        <v>18798350.99625189</v>
       </c>
       <c r="F11" t="n">
-        <v>4299765.331563851</v>
+        <v>18179860.80050994</v>
       </c>
       <c r="G11" t="n">
-        <v>2732372.808241717</v>
+        <v>18098589.36350235</v>
       </c>
       <c r="H11" t="n">
-        <v>2586354.467427853</v>
+        <v>18985207.10424133</v>
       </c>
       <c r="I11" t="n">
-        <v>3743515.821782076</v>
+        <v>19192070.04851091</v>
       </c>
       <c r="J11" t="n">
-        <v>3625637.393045566</v>
+        <v>19819837.67981102</v>
       </c>
       <c r="K11" t="n">
-        <v>2785396.75844486</v>
+        <v>20051667.16792005</v>
       </c>
       <c r="L11" t="n">
-        <v>6215337.082740584</v>
+        <v>21576306.28960647</v>
       </c>
       <c r="M11" t="n">
-        <v>2454192.53943901</v>
+        <v>21857208.90819454</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>ИПР ММК</t>
+          <t>Менеджер ОРСТП 1</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>387431.0288061096</v>
+        <v>39352441.89527667</v>
       </c>
       <c r="C12" t="n">
-        <v>62020.12511778288</v>
+        <v>44238647.12379555</v>
       </c>
       <c r="D12" t="n">
-        <v>1938.785557995492</v>
+        <v>46579734.85877861</v>
       </c>
       <c r="E12" t="n">
-        <v>-100390.8299442588</v>
+        <v>44501178.1232646</v>
       </c>
       <c r="F12" t="n">
-        <v>-23167.48946717003</v>
+        <v>37498648.69004638</v>
       </c>
       <c r="G12" t="n">
-        <v>175462.1574227838</v>
+        <v>37257912.72609105</v>
       </c>
       <c r="H12" t="n">
-        <v>-210349.246504311</v>
+        <v>40451057.97049723</v>
       </c>
       <c r="I12" t="n">
-        <v>685953.404105434</v>
+        <v>41197355.09429321</v>
       </c>
       <c r="J12" t="n">
-        <v>1210275.656573498</v>
+        <v>39759615.29928431</v>
       </c>
       <c r="K12" t="n">
-        <v>504380.2898905884</v>
+        <v>36209517.49593803</v>
       </c>
       <c r="L12" t="n">
-        <v>341184.2225790782</v>
+        <v>41168695.27721184</v>
       </c>
       <c r="M12" t="n">
-        <v>7580.161405347259</v>
+        <v>45053993.24977451</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>ИПР Лебединский ГОК</t>
+          <t>Менеджер ОРСТП 2</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1574253.859704273</v>
+        <v>42047671.42272054</v>
       </c>
       <c r="C13" t="n">
-        <v>1680138.505025792</v>
+        <v>40805024.4684334</v>
       </c>
       <c r="D13" t="n">
-        <v>1782580.261280597</v>
+        <v>44334409.54751162</v>
       </c>
       <c r="E13" t="n">
-        <v>2092910.580233949</v>
+        <v>38004422.49059583</v>
       </c>
       <c r="F13" t="n">
-        <v>2068091.585429169</v>
+        <v>35756487.56263504</v>
       </c>
       <c r="G13" t="n">
-        <v>2273185.072811273</v>
+        <v>31403974.26433302</v>
       </c>
       <c r="H13" t="n">
-        <v>2335901.211372082</v>
+        <v>35045442.3406942</v>
       </c>
       <c r="I13" t="n">
-        <v>2454388.110440269</v>
+        <v>36279236.7817346</v>
       </c>
       <c r="J13" t="n">
-        <v>2788066.818002708</v>
+        <v>35474510.99221699</v>
       </c>
       <c r="K13" t="n">
-        <v>2779551.375140977</v>
+        <v>30887698.15099296</v>
       </c>
       <c r="L13" t="n">
-        <v>3171859.761351385</v>
+        <v>35617663.30568802</v>
       </c>
       <c r="M13" t="n">
-        <v>3021858.349480034</v>
+        <v>39731125.24723049</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>ИПР Металлоинвест</t>
+          <t>ОПП Владивосток</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-334745.1643551482</v>
+        <v>3126671.971154501</v>
       </c>
       <c r="C14" t="n">
-        <v>-285133.7806556061</v>
+        <v>4158535.728642133</v>
       </c>
       <c r="D14" t="n">
-        <v>-470165.7718217542</v>
+        <v>5146890.334644153</v>
       </c>
       <c r="E14" t="n">
-        <v>125187.6174838372</v>
+        <v>6092612.113569934</v>
       </c>
       <c r="F14" t="n">
-        <v>-570225.5625702861</v>
+        <v>6996542.233818467</v>
       </c>
       <c r="G14" t="n">
-        <v>-392967.8677633249</v>
+        <v>7859546.958632698</v>
       </c>
       <c r="H14" t="n">
-        <v>-602146.2117819424</v>
+        <v>8741457.285445556</v>
       </c>
       <c r="I14" t="n">
-        <v>392918.360988153</v>
+        <v>9562140.616622197</v>
       </c>
       <c r="J14" t="n">
-        <v>1253165.879743392</v>
+        <v>10299666.7682721</v>
       </c>
       <c r="K14" t="n">
-        <v>557058.0735412167</v>
+        <v>10983309.64970536</v>
       </c>
       <c r="L14" t="n">
-        <v>-106598.7663058139</v>
+        <v>11812633.43215286</v>
       </c>
       <c r="M14" t="n">
-        <v>-95009.1927331146</v>
+        <v>12735563.15089219</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>ИПР Михайловский ГОК</t>
+          <t>ОПП Воронеж</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1000795.861299864</v>
+        <v>4119056.720603576</v>
       </c>
       <c r="C15" t="n">
-        <v>942618.2631797469</v>
+        <v>3752869.189836221</v>
       </c>
       <c r="D15" t="n">
-        <v>977091.9906111256</v>
+        <v>3657145.459629522</v>
       </c>
       <c r="E15" t="n">
-        <v>1028383.250354172</v>
+        <v>4176628.263710065</v>
       </c>
       <c r="F15" t="n">
-        <v>1041001.302339692</v>
+        <v>3857797.664890657</v>
       </c>
       <c r="G15" t="n">
-        <v>1274795.228578467</v>
+        <v>3744557.883366186</v>
       </c>
       <c r="H15" t="n">
-        <v>1240247.009470379</v>
+        <v>3742167.894936372</v>
       </c>
       <c r="I15" t="n">
-        <v>1181604.565246179</v>
+        <v>4580401.845516321</v>
       </c>
       <c r="J15" t="n">
-        <v>1206295.465970099</v>
+        <v>4937401.329396515</v>
       </c>
       <c r="K15" t="n">
-        <v>1267160.415327566</v>
+        <v>3914668.850023061</v>
       </c>
       <c r="L15" t="n">
-        <v>1223686.145364882</v>
+        <v>4158722.350065923</v>
       </c>
       <c r="M15" t="n">
-        <v>1329868.739080495</v>
+        <v>3516585.105307124</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>ИПР ОЭМК</t>
+          <t>ОПП Казань+Чувашия</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1292720.048176165</v>
+        <v>10249717.92572738</v>
       </c>
       <c r="C16" t="n">
-        <v>1385467.423660788</v>
+        <v>12819306.53681614</v>
       </c>
       <c r="D16" t="n">
-        <v>1509010.122011408</v>
+        <v>12434655.32656754</v>
       </c>
       <c r="E16" t="n">
-        <v>1639982.018051894</v>
+        <v>13774609.97487689</v>
       </c>
       <c r="F16" t="n">
-        <v>1724622.926251875</v>
+        <v>14370600.85992392</v>
       </c>
       <c r="G16" t="n">
-        <v>2043089.57883011</v>
+        <v>13343265.33861684</v>
       </c>
       <c r="H16" t="n">
-        <v>1973857.157173973</v>
+        <v>12145462.20777543</v>
       </c>
       <c r="I16" t="n">
-        <v>2216797.426471491</v>
+        <v>12738968.8149733</v>
       </c>
       <c r="J16" t="n">
-        <v>2283792.125744411</v>
+        <v>14200410.72562127</v>
       </c>
       <c r="K16" t="n">
-        <v>2389433.191087788</v>
+        <v>13508364.03530332</v>
       </c>
       <c r="L16" t="n">
-        <v>2561928.56965382</v>
+        <v>13713753.11299475</v>
       </c>
       <c r="M16" t="n">
-        <v>2596177.828789128</v>
+        <v>14193515.23630551</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>ИПР Уральская Сталь</t>
+          <t>ОПП Краснодар</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>7510333.154614752</v>
+        <v>4856039.236131433</v>
       </c>
       <c r="C17" t="n">
-        <v>8238133.646570342</v>
+        <v>5310730.320908926</v>
       </c>
       <c r="D17" t="n">
-        <v>8951254.003853342</v>
+        <v>5384046.134905812</v>
       </c>
       <c r="E17" t="n">
-        <v>9424496.329556147</v>
+        <v>5633512.29628442</v>
       </c>
       <c r="F17" t="n">
-        <v>10056477.43326849</v>
+        <v>5180895.082056176</v>
       </c>
       <c r="G17" t="n">
-        <v>10584428.76959499</v>
+        <v>4640653.398429851</v>
       </c>
       <c r="H17" t="n">
-        <v>11117705.23185351</v>
+        <v>5427660.416751009</v>
       </c>
       <c r="I17" t="n">
-        <v>12317250.53557834</v>
+        <v>4898762.060585533</v>
       </c>
       <c r="J17" t="n">
-        <v>13034696.96275143</v>
+        <v>5187393.919786741</v>
       </c>
       <c r="K17" t="n">
-        <v>13378360.79861815</v>
+        <v>4978509.659067763</v>
       </c>
       <c r="L17" t="n">
-        <v>14902998.44680632</v>
+        <v>5245996.810816218</v>
       </c>
       <c r="M17" t="n">
-        <v>14465509.95087861</v>
+        <v>5423707.707348577</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>ИПР Воркута</t>
+          <t>ОПП Красноярск</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1046371.761127024</v>
+        <v>3101782.989069086</v>
       </c>
       <c r="C18" t="n">
-        <v>898970.1024372636</v>
+        <v>3341164.972838652</v>
       </c>
       <c r="D18" t="n">
-        <v>1318424.214901777</v>
+        <v>2906586.175750094</v>
       </c>
       <c r="E18" t="n">
-        <v>1046146.154374165</v>
+        <v>2911548.536217005</v>
       </c>
       <c r="F18" t="n">
-        <v>1321169.041219219</v>
+        <v>3412569.276936108</v>
       </c>
       <c r="G18" t="n">
-        <v>3227714.144850986</v>
+        <v>3072538.625396727</v>
       </c>
       <c r="H18" t="n">
-        <v>737750.6372752975</v>
+        <v>3589321.353259265</v>
       </c>
       <c r="I18" t="n">
-        <v>1293616.803568663</v>
+        <v>3387508.186994582</v>
       </c>
       <c r="J18" t="n">
-        <v>1496790.90535934</v>
+        <v>3137413.992608412</v>
       </c>
       <c r="K18" t="n">
-        <v>1349419.350214699</v>
+        <v>3969464.522279585</v>
       </c>
       <c r="L18" t="n">
-        <v>963612.3004819277</v>
+        <v>3447645.292679445</v>
       </c>
       <c r="M18" t="n">
-        <v>1263661.908330682</v>
+        <v>2905695.341644428</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>ИПР Колпино СС</t>
+          <t>ОПП МСК Авто ( Юг)</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-68104.09283578482</v>
+        <v>6568122.703504889</v>
       </c>
       <c r="C19" t="n">
-        <v>-173426.7431036931</v>
+        <v>5122511.077442873</v>
       </c>
       <c r="D19" t="n">
-        <v>111321.5384461075</v>
+        <v>6352209.964670276</v>
       </c>
       <c r="E19" t="n">
-        <v>-138209.0191373659</v>
+        <v>5554663.136520702</v>
       </c>
       <c r="F19" t="n">
-        <v>-238710.7981373487</v>
+        <v>5995396.429224337</v>
       </c>
       <c r="G19" t="n">
-        <v>-99507.8804921759</v>
+        <v>3182964.810944705</v>
       </c>
       <c r="H19" t="n">
-        <v>-223548.3596652425</v>
+        <v>4787751.159347065</v>
       </c>
       <c r="I19" t="n">
-        <v>-198406.4382733119</v>
+        <v>6272644.217447894</v>
       </c>
       <c r="J19" t="n">
-        <v>-65766.17863272211</v>
+        <v>3867694.908793537</v>
       </c>
       <c r="K19" t="n">
-        <v>-255903.5376141211</v>
+        <v>3436401.246256795</v>
       </c>
       <c r="L19" t="n">
-        <v>-188316.023661146</v>
+        <v>4624084.976728856</v>
       </c>
       <c r="M19" t="n">
-        <v>-311509.1252256933</v>
+        <v>5527894.046898546</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>ИПР Костомукша СС</t>
+          <t>ОПП МСК Пром (Север)</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1539531.940997573</v>
+        <v>2033510.6713322</v>
       </c>
       <c r="C20" t="n">
-        <v>1744608.583435788</v>
+        <v>2577489.319524281</v>
       </c>
       <c r="D20" t="n">
-        <v>2523254.794005718</v>
+        <v>2942721.697271904</v>
       </c>
       <c r="E20" t="n">
-        <v>1877737.766492807</v>
+        <v>3292736.588091091</v>
       </c>
       <c r="F20" t="n">
-        <v>2108747.3757301</v>
+        <v>2679924.118550204</v>
       </c>
       <c r="G20" t="n">
-        <v>2862128.440006423</v>
+        <v>2052832.240827791</v>
       </c>
       <c r="H20" t="n">
-        <v>395438.8001650397</v>
+        <v>3256693.591605123</v>
       </c>
       <c r="I20" t="n">
-        <v>1672366.017158723</v>
+        <v>3417655.471826984</v>
       </c>
       <c r="J20" t="n">
-        <v>1783040.99491207</v>
+        <v>1826626.442761097</v>
       </c>
       <c r="K20" t="n">
-        <v>1959969.043887612</v>
+        <v>2282913.728433805</v>
       </c>
       <c r="L20" t="n">
-        <v>1678605.178914694</v>
+        <v>3234589.63996083</v>
       </c>
       <c r="M20" t="n">
-        <v>2040251.620256833</v>
+        <v>2256884.924779043</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>ИПР Олкон</t>
+          <t>ОПП Мурманск</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1592515.693292212</v>
+        <v>4030947.564028017</v>
       </c>
       <c r="C21" t="n">
-        <v>1078138.311892572</v>
+        <v>3839721.193537899</v>
       </c>
       <c r="D21" t="n">
-        <v>1125074.376426148</v>
+        <v>5075659.745913762</v>
       </c>
       <c r="E21" t="n">
-        <v>1685980.706882669</v>
+        <v>4667875.41625619</v>
       </c>
       <c r="F21" t="n">
-        <v>1161992.591319615</v>
+        <v>4887261.256187714</v>
       </c>
       <c r="G21" t="n">
-        <v>1154879.936612964</v>
+        <v>4147587.873559825</v>
       </c>
       <c r="H21" t="n">
-        <v>1012323.901938636</v>
+        <v>3761088.508466521</v>
       </c>
       <c r="I21" t="n">
-        <v>1649627.362209932</v>
+        <v>4092396.844835095</v>
       </c>
       <c r="J21" t="n">
-        <v>1233727.211395105</v>
+        <v>4309129.731557927</v>
       </c>
       <c r="K21" t="n">
-        <v>1805219.705002251</v>
+        <v>4558535.800453757</v>
       </c>
       <c r="L21" t="n">
-        <v>1739406.7292933</v>
+        <v>4744876.937365671</v>
       </c>
       <c r="M21" t="n">
-        <v>1352587.295764836</v>
+        <v>3999544.498482094</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>ИПР Свеза</t>
+          <t>ОПП Нижний Новгород</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>92455.39562138868</v>
+        <v>10363007.01351492</v>
       </c>
       <c r="C22" t="n">
-        <v>-2039.078280222369</v>
+        <v>11780672.1358018</v>
       </c>
       <c r="D22" t="n">
-        <v>-9606.884370251151</v>
+        <v>13654019.125213</v>
       </c>
       <c r="E22" t="n">
-        <v>62612.25884962216</v>
+        <v>12644328.33110876</v>
       </c>
       <c r="F22" t="n">
-        <v>687871.0713577216</v>
+        <v>12893779.51011918</v>
       </c>
       <c r="G22" t="n">
-        <v>1085047.258187722</v>
+        <v>10447750.85600937</v>
       </c>
       <c r="H22" t="n">
-        <v>986267.1951888266</v>
+        <v>11688952.49103621</v>
       </c>
       <c r="I22" t="n">
-        <v>556574.1018862748</v>
+        <v>11731681.63539985</v>
       </c>
       <c r="J22" t="n">
-        <v>1053293.097600623</v>
+        <v>13110529.50679233</v>
       </c>
       <c r="K22" t="n">
-        <v>847459.2821813477</v>
+        <v>11401869.4126112</v>
       </c>
       <c r="L22" t="n">
-        <v>500834.0185844281</v>
+        <v>13489450.86407357</v>
       </c>
       <c r="M22" t="n">
-        <v>448245.1231164123</v>
+        <v>12367358.26541399</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>ИПР Сегежа</t>
+          <t>ОПП НКЗ</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-40265.45988028782</v>
+        <v>12834549.84158728</v>
       </c>
       <c r="C23" t="n">
-        <v>-39842.99293339774</v>
+        <v>10993781.82446168</v>
       </c>
       <c r="D23" t="n">
-        <v>-39420.71732429952</v>
+        <v>8538284.10150896</v>
       </c>
       <c r="E23" t="n">
-        <v>-38143.45494091672</v>
+        <v>8027042.987843765</v>
       </c>
       <c r="F23" t="n">
-        <v>-32925.10758087136</v>
+        <v>7996556.788912471</v>
       </c>
       <c r="G23" t="n">
-        <v>184670.5687833116</v>
+        <v>4602371.841886464</v>
       </c>
       <c r="H23" t="n">
-        <v>-37739.07333379148</v>
+        <v>6725354.471252721</v>
       </c>
       <c r="I23" t="n">
-        <v>83442.11893562706</v>
+        <v>6256867.957825249</v>
       </c>
       <c r="J23" t="n">
-        <v>44592.23770499269</v>
+        <v>6603637.990634358</v>
       </c>
       <c r="K23" t="n">
-        <v>-21435.78512918101</v>
+        <v>5688390.415970917</v>
       </c>
       <c r="L23" t="n">
-        <v>12648.98187244083</v>
+        <v>7155005.424385536</v>
       </c>
       <c r="M23" t="n">
-        <v>-35639.59063100914</v>
+        <v>7405576.145560374</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>ИПР Череповец СС</t>
+          <t>ОПП СПб Пром</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>13692244.08165987</v>
+        <v>9013718.000330826</v>
       </c>
       <c r="C24" t="n">
-        <v>11737790.30954781</v>
+        <v>9772878.686320014</v>
       </c>
       <c r="D24" t="n">
-        <v>12731170.59428217</v>
+        <v>9873440.18737508</v>
       </c>
       <c r="E24" t="n">
-        <v>12168480.74074572</v>
+        <v>9608128.257499393</v>
       </c>
       <c r="F24" t="n">
-        <v>12474132.45678309</v>
+        <v>11951307.10497289</v>
       </c>
       <c r="G24" t="n">
-        <v>15299171.46488849</v>
+        <v>7736368.802431596</v>
       </c>
       <c r="H24" t="n">
-        <v>9817308.524959655</v>
+        <v>9917153.732945617</v>
       </c>
       <c r="I24" t="n">
-        <v>12691420.12361751</v>
+        <v>10530413.11883985</v>
       </c>
       <c r="J24" t="n">
-        <v>14173352.60264275</v>
+        <v>11164280.19195215</v>
       </c>
       <c r="K24" t="n">
-        <v>13461285.34321385</v>
+        <v>8613281.393176924</v>
       </c>
       <c r="L24" t="n">
-        <v>12961730.09933745</v>
+        <v>9829081.984199379</v>
       </c>
       <c r="M24" t="n">
-        <v>13224126.67052101</v>
+        <v>10155294.39090883</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>ИПР Яковлевский СС</t>
+          <t>ОПП СПб Север Авто</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2557465.114518002</v>
+        <v>4800671.663104283</v>
       </c>
       <c r="C25" t="n">
-        <v>2641808.148359424</v>
+        <v>6297321.059449695</v>
       </c>
       <c r="D25" t="n">
-        <v>2481178.318665215</v>
+        <v>6111832.591694918</v>
       </c>
       <c r="E25" t="n">
-        <v>3103417.791468631</v>
+        <v>5538308.091267059</v>
       </c>
       <c r="F25" t="n">
-        <v>2943173.520251357</v>
+        <v>6304743.09644987</v>
       </c>
       <c r="G25" t="n">
-        <v>3114226.118443597</v>
+        <v>4177537.034866552</v>
       </c>
       <c r="H25" t="n">
-        <v>1709377.133779716</v>
+        <v>4859661.340528538</v>
       </c>
       <c r="I25" t="n">
-        <v>2839503.678191719</v>
+        <v>6214309.197911073</v>
       </c>
       <c r="J25" t="n">
-        <v>2741870.885155387</v>
+        <v>5408290.643876805</v>
       </c>
       <c r="K25" t="n">
-        <v>2795140.379485704</v>
+        <v>3919403.246575284</v>
       </c>
       <c r="L25" t="n">
-        <v>2649508.295133302</v>
+        <v>4392389.925849116</v>
       </c>
       <c r="M25" t="n">
-        <v>2752806.416052658</v>
+        <v>5283905.549395179</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>ИПР Нижний Тагил</t>
+          <t>ОПП СПб Юг Авто</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>9441635.489600081</v>
+        <v>11185084.4906562</v>
       </c>
       <c r="C26" t="n">
-        <v>9722443.55374</v>
+        <v>10596185.25610656</v>
       </c>
       <c r="D26" t="n">
-        <v>8775464.397680242</v>
+        <v>10750411.53588025</v>
       </c>
       <c r="E26" t="n">
-        <v>8854741.999251643</v>
+        <v>9724625.329034103</v>
       </c>
       <c r="F26" t="n">
-        <v>8573612.032687562</v>
+        <v>11767289.61852995</v>
       </c>
       <c r="G26" t="n">
-        <v>9933640.762004431</v>
+        <v>9147537.123614687</v>
       </c>
       <c r="H26" t="n">
-        <v>8457526.650652008</v>
+        <v>11208792.47273446</v>
       </c>
       <c r="I26" t="n">
-        <v>8663577.96362588</v>
+        <v>11169450.09471573</v>
       </c>
       <c r="J26" t="n">
-        <v>10263274.77339193</v>
+        <v>10004537.2785983</v>
       </c>
       <c r="K26" t="n">
-        <v>12026523.79643904</v>
+        <v>10994287.81170939</v>
       </c>
       <c r="L26" t="n">
-        <v>12023856.63293633</v>
+        <v>10184188.83721299</v>
       </c>
       <c r="M26" t="n">
-        <v>13201387.63747674</v>
+        <v>9691221.942346537</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>ИПР НКЗ</t>
+          <t>ОПП Сургут</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>13574993.52548302</v>
+        <v>4311093.719190883</v>
       </c>
       <c r="C27" t="n">
-        <v>14131717.55437494</v>
+        <v>3696075.750533494</v>
       </c>
       <c r="D27" t="n">
-        <v>14050106.62088112</v>
+        <v>4064854.579727018</v>
       </c>
       <c r="E27" t="n">
-        <v>14038192.77907234</v>
+        <v>3881280.920648004</v>
       </c>
       <c r="F27" t="n">
-        <v>14124470.7938633</v>
+        <v>4800413.943350943</v>
       </c>
       <c r="G27" t="n">
-        <v>19271979.10986063</v>
+        <v>3894194.05061994</v>
       </c>
       <c r="H27" t="n">
-        <v>13098074.15507674</v>
+        <v>4567372.91734406</v>
       </c>
       <c r="I27" t="n">
-        <v>14329386.58596662</v>
+        <v>4912280.319440842</v>
       </c>
       <c r="J27" t="n">
-        <v>14993689.14589065</v>
+        <v>4289889.022339875</v>
       </c>
       <c r="K27" t="n">
-        <v>14432492.02040902</v>
+        <v>3868441.606869001</v>
       </c>
       <c r="L27" t="n">
-        <v>14208635.41318524</v>
+        <v>3731648.306351622</v>
       </c>
       <c r="M27" t="n">
-        <v>14941501.86619649</v>
+        <v>5019209.274909198</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>ИПР Русал</t>
+          <t>ОПП Хабаровск</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>14583695.75099442</v>
+        <v>10688186.90185761</v>
       </c>
       <c r="C28" t="n">
-        <v>14955555.96520673</v>
+        <v>8881534.13265916</v>
       </c>
       <c r="D28" t="n">
-        <v>15305095.14595078</v>
+        <v>8556594.415410219</v>
       </c>
       <c r="E28" t="n">
-        <v>15700964.07201319</v>
+        <v>9225170.047697125</v>
       </c>
       <c r="F28" t="n">
-        <v>15782202.88876398</v>
+        <v>12571440.20392781</v>
       </c>
       <c r="G28" t="n">
-        <v>16158640.12370732</v>
+        <v>8604875.382050885</v>
       </c>
       <c r="H28" t="n">
-        <v>15435624.09619566</v>
+        <v>11590997.42215239</v>
       </c>
       <c r="I28" t="n">
-        <v>15391913.90250995</v>
+        <v>10763516.17570414</v>
       </c>
       <c r="J28" t="n">
-        <v>16431347.24986853</v>
+        <v>11554551.4100175</v>
       </c>
       <c r="K28" t="n">
-        <v>17677618.59582076</v>
+        <v>8329499.781210558</v>
       </c>
       <c r="L28" t="n">
-        <v>18412183.19973608</v>
+        <v>10853481.41614327</v>
       </c>
       <c r="M28" t="n">
-        <v>18294468.47841961</v>
+        <v>13303796.70302657</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>ИПР УГМК</t>
+          <t>Магазин Владивосток</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>17860487.61123583</v>
+        <v>2395793.212306482</v>
       </c>
       <c r="C29" t="n">
-        <v>18823822.07279043</v>
+        <v>2430358.31009988</v>
       </c>
       <c r="D29" t="n">
-        <v>20286981.85225685</v>
+        <v>2370137.24571263</v>
       </c>
       <c r="E29" t="n">
-        <v>21895132.48826873</v>
+        <v>2418014.819204309</v>
       </c>
       <c r="F29" t="n">
-        <v>22672559.31759927</v>
+        <v>2408774.294541936</v>
       </c>
       <c r="G29" t="n">
-        <v>22242871.32929316</v>
+        <v>2434806.769919853</v>
       </c>
       <c r="H29" t="n">
-        <v>22599545.77986518</v>
+        <v>2416389.592305956</v>
       </c>
       <c r="I29" t="n">
-        <v>23766563.722836</v>
+        <v>2586344.087513095</v>
       </c>
       <c r="J29" t="n">
-        <v>24239347.26773267</v>
+        <v>2682799.146970073</v>
       </c>
       <c r="K29" t="n">
-        <v>25115935.84587136</v>
+        <v>2671665.005087596</v>
       </c>
       <c r="L29" t="n">
-        <v>25582269.13911323</v>
+        <v>2759851.0891806</v>
       </c>
       <c r="M29" t="n">
-        <v>27323619.64859927</v>
+        <v>2751403.973198327</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>Менеджер ОРСТП 1</t>
+          <t>Магазин Воронеж</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>48202770.42770442</v>
+        <v>664986.7517451271</v>
       </c>
       <c r="C30" t="n">
-        <v>42904910.29670551</v>
+        <v>609315.8617414668</v>
       </c>
       <c r="D30" t="n">
-        <v>47735180.49216709</v>
+        <v>559257.66078614</v>
       </c>
       <c r="E30" t="n">
-        <v>50021111.95149398</v>
+        <v>521044.1018878649</v>
       </c>
       <c r="F30" t="n">
-        <v>47888151.67418211</v>
+        <v>749263.861159379</v>
       </c>
       <c r="G30" t="n">
-        <v>40831973.75632427</v>
+        <v>472548.7470252466</v>
       </c>
       <c r="H30" t="n">
-        <v>40538343.08650616</v>
+        <v>429515.5975379684</v>
       </c>
       <c r="I30" t="n">
-        <v>43679352.52565081</v>
+        <v>378925.8668778934</v>
       </c>
       <c r="J30" t="n">
-        <v>44374244.92796972</v>
+        <v>445038.7347897493</v>
       </c>
       <c r="K30" t="n">
-        <v>42885782.2339612</v>
+        <v>316772.4285039905</v>
       </c>
       <c r="L30" t="n">
-        <v>39285639.65569114</v>
+        <v>244891.5058438305</v>
       </c>
       <c r="M30" t="n">
-        <v>44195497.36419836</v>
+        <v>333534.4775129888</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>Менеджер ОРСТП 2</t>
+          <t>Магазин Казань / ПВЗ Казань</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>38883576.07445262</v>
+        <v>595568.3416856979</v>
       </c>
       <c r="C31" t="n">
-        <v>42094679.41523004</v>
+        <v>768430.1913885892</v>
       </c>
       <c r="D31" t="n">
-        <v>40815987.39827264</v>
+        <v>816948.6179156479</v>
       </c>
       <c r="E31" t="n">
-        <v>44314378.33932275</v>
+        <v>874004.1969413533</v>
       </c>
       <c r="F31" t="n">
-        <v>37957904.02841765</v>
+        <v>842624.0439746339</v>
       </c>
       <c r="G31" t="n">
-        <v>35687481.81872632</v>
+        <v>556345.1369714034</v>
       </c>
       <c r="H31" t="n">
-        <v>31316039.58899578</v>
+        <v>759938.8791546786</v>
       </c>
       <c r="I31" t="n">
-        <v>34941732.28555334</v>
+        <v>887502.9876610208</v>
       </c>
       <c r="J31" t="n">
-        <v>36162551.33558093</v>
+        <v>758917.5150696489</v>
       </c>
       <c r="K31" t="n">
-        <v>35347320.45357725</v>
+        <v>646301.4811898196</v>
       </c>
       <c r="L31" t="n">
-        <v>30752176.99125632</v>
+        <v>669013.4656160889</v>
       </c>
       <c r="M31" t="n">
-        <v>35475718.50998542</v>
+        <v>597289.3109144751</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>ОПП Владивосток</t>
+          <t>Магазин Кемерово</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>772388.3175127408</v>
+        <v>1843954.156771105</v>
       </c>
       <c r="C32" t="n">
-        <v>939492.4671747566</v>
+        <v>2037084.041659927</v>
       </c>
       <c r="D32" t="n">
-        <v>1099663.813876882</v>
+        <v>2028233.726961712</v>
       </c>
       <c r="E32" t="n">
-        <v>1253041.878353357</v>
+        <v>1925201.910963527</v>
       </c>
       <c r="F32" t="n">
-        <v>1399763.520986813</v>
+        <v>2041706.044422558</v>
       </c>
       <c r="G32" t="n">
-        <v>1539962.59413758</v>
+        <v>1779205.388528043</v>
       </c>
       <c r="H32" t="n">
-        <v>1673769.604295149</v>
+        <v>1853863.680678694</v>
       </c>
       <c r="I32" t="n">
-        <v>1860340.724502239</v>
+        <v>2043629.884451394</v>
       </c>
       <c r="J32" t="n">
-        <v>2018040.468714946</v>
+        <v>2135411.167028746</v>
       </c>
       <c r="K32" t="n">
-        <v>2126772.434564415</v>
+        <v>2006191.771394583</v>
       </c>
       <c r="L32" t="n">
-        <v>2213524.307942323</v>
+        <v>2072903.105821019</v>
       </c>
       <c r="M32" t="n">
-        <v>2476273.829983782</v>
+        <v>2104655.649571028</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>ОПП Воронеж</t>
+          <t>Магазин Краснодар</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3723149.732948544</v>
+        <v>2293653.437101898</v>
       </c>
       <c r="C33" t="n">
-        <v>4402189.478769873</v>
+        <v>2196731.975877955</v>
       </c>
       <c r="D33" t="n">
-        <v>4033753.380960237</v>
+        <v>2179683.649465656</v>
       </c>
       <c r="E33" t="n">
-        <v>3935717.646594213</v>
+        <v>2059641.525157629</v>
       </c>
       <c r="F33" t="n">
-        <v>4452808.556187295</v>
+        <v>2136675.584338629</v>
       </c>
       <c r="G33" t="n">
-        <v>4131505.465609495</v>
+        <v>2106143.425917734</v>
       </c>
       <c r="H33" t="n">
-        <v>4015731.53451316</v>
+        <v>2015695.667020335</v>
       </c>
       <c r="I33" t="n">
-        <v>4010752.090632251</v>
+        <v>2185487.950930741</v>
       </c>
       <c r="J33" t="n">
-        <v>4846314.696467014</v>
+        <v>2243354.831358294</v>
       </c>
       <c r="K33" t="n">
-        <v>5200560.885733677</v>
+        <v>2078936.194552371</v>
       </c>
       <c r="L33" t="n">
-        <v>4175027.194219392</v>
+        <v>2482412.19801535</v>
       </c>
       <c r="M33" t="n">
-        <v>4416215.802131999</v>
+        <v>2635012.366954884</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>ОПП Казань+Чувашия</t>
+          <t>Магазин Красноярск 1</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>10107383.86775718</v>
+        <v>3118792.655423729</v>
       </c>
       <c r="C34" t="n">
-        <v>9402689.372613983</v>
+        <v>2260979.889613524</v>
       </c>
       <c r="D34" t="n">
-        <v>11897061.00395589</v>
+        <v>3023758.35342525</v>
       </c>
       <c r="E34" t="n">
-        <v>11441019.8681033</v>
+        <v>2543136.813065622</v>
       </c>
       <c r="F34" t="n">
-        <v>12713846.39293525</v>
+        <v>2902911.324209264</v>
       </c>
       <c r="G34" t="n">
-        <v>13246618.94520414</v>
+        <v>2384912.097145048</v>
       </c>
       <c r="H34" t="n">
-        <v>12160032.70865013</v>
+        <v>2232200.785579028</v>
       </c>
       <c r="I34" t="n">
-        <v>10907101.58420982</v>
+        <v>2461904.862187305</v>
       </c>
       <c r="J34" t="n">
-        <v>11449498.12018374</v>
+        <v>2408428.96816462</v>
       </c>
       <c r="K34" t="n">
-        <v>12863416.64676207</v>
+        <v>2607171.616309893</v>
       </c>
       <c r="L34" t="n">
-        <v>12127254.22587601</v>
+        <v>2711680.75434938</v>
       </c>
       <c r="M34" t="n">
-        <v>12292235.36771441</v>
+        <v>2549008.596177561</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>ОПП Краснодар</t>
+          <t>Магазин МСК 3</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>4763800.835522427</v>
+        <v>1608238.400012215</v>
       </c>
       <c r="C35" t="n">
-        <v>4697623.296894812</v>
+        <v>1732408.092181343</v>
       </c>
       <c r="D35" t="n">
-        <v>5155617.945212453</v>
+        <v>1871716.300953926</v>
       </c>
       <c r="E35" t="n">
-        <v>5232151.853748355</v>
+        <v>1700117.425680997</v>
       </c>
       <c r="F35" t="n">
-        <v>5484750.873326183</v>
+        <v>1668236.720031469</v>
       </c>
       <c r="G35" t="n">
-        <v>5035184.489785775</v>
+        <v>1528733.257321098</v>
       </c>
       <c r="H35" t="n">
-        <v>4497915.417536752</v>
+        <v>1600113.504728663</v>
       </c>
       <c r="I35" t="n">
-        <v>5287813.440814273</v>
+        <v>1927338.522144192</v>
       </c>
       <c r="J35" t="n">
-        <v>4761725.996678985</v>
+        <v>1700296.109553762</v>
       </c>
       <c r="K35" t="n">
-        <v>5053090.205337144</v>
+        <v>1646254.95728047</v>
       </c>
       <c r="L35" t="n">
-        <v>4846861.281079194</v>
+        <v>1558940.971641774</v>
       </c>
       <c r="M35" t="n">
-        <v>5116931.562551789</v>
+        <v>1904310.869627336</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>ОПП Красноярск</t>
+          <t>Магазин МСК Балашиха</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>2204967.961574405</v>
+        <v>1263227.486391993</v>
       </c>
       <c r="C36" t="n">
-        <v>2639549.335589112</v>
+        <v>1379247.978204664</v>
       </c>
       <c r="D36" t="n">
-        <v>2900869.816300087</v>
+        <v>1519674.289829664</v>
       </c>
       <c r="E36" t="n">
-        <v>2486638.076002587</v>
+        <v>1224694.972524654</v>
       </c>
       <c r="F36" t="n">
-        <v>2510494.488669726</v>
+        <v>1290772.737017203</v>
       </c>
       <c r="G36" t="n">
-        <v>3029080.011747246</v>
+        <v>1249207.462080852</v>
       </c>
       <c r="H36" t="n">
-        <v>2705398.283572189</v>
+        <v>1583642.38707772</v>
       </c>
       <c r="I36" t="n">
-        <v>3237413.488489007</v>
+        <v>1497204.019819224</v>
       </c>
       <c r="J36" t="n">
-        <v>3049813.54636024</v>
+        <v>1484667.856172177</v>
       </c>
       <c r="K36" t="n">
-        <v>2812997.353889055</v>
+        <v>1428203.6640075</v>
       </c>
       <c r="L36" t="n">
-        <v>3657467.240308445</v>
+        <v>1646694.063979299</v>
       </c>
       <c r="M36" t="n">
-        <v>3147299.898772147</v>
+        <v>1576070.859321221</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>ОПП МСК Авто ( Юг)</t>
+          <t>Магазин МСК Кунцево</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>6677174.411293659</v>
+        <v>4646747.994152086</v>
       </c>
       <c r="C37" t="n">
-        <v>6516651.699644867</v>
+        <v>4145051.964578548</v>
       </c>
       <c r="D37" t="n">
-        <v>5075117.180081744</v>
+        <v>4980018.076372319</v>
       </c>
       <c r="E37" t="n">
-        <v>6308699.359006132</v>
+        <v>4479117.340681162</v>
       </c>
       <c r="F37" t="n">
-        <v>5514845.364314334</v>
+        <v>3976646.735928535</v>
       </c>
       <c r="G37" t="n">
-        <v>5959092.677437983</v>
+        <v>3311708.970547508</v>
       </c>
       <c r="H37" t="n">
-        <v>3150001.595297652</v>
+        <v>3402124.974822198</v>
       </c>
       <c r="I37" t="n">
-        <v>4757968.118026161</v>
+        <v>4550279.215605943</v>
       </c>
       <c r="J37" t="n">
-        <v>6245879.874913567</v>
+        <v>3945892.094800188</v>
       </c>
       <c r="K37" t="n">
-        <v>3843794.912152168</v>
+        <v>3477251.636937122</v>
       </c>
       <c r="L37" t="n">
-        <v>3415224.762211537</v>
+        <v>3947021.243277549</v>
       </c>
       <c r="M37" t="n">
-        <v>4605493.627616753</v>
+        <v>4503615.855762481</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>ОПП МСК Пром (Север)</t>
+          <t>Магазин Мурманск</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2101136.114313977</v>
+        <v>3704199.715514792</v>
       </c>
       <c r="C38" t="n">
-        <v>2223160.006338207</v>
+        <v>4065362.829141251</v>
       </c>
       <c r="D38" t="n">
-        <v>2752728.331445843</v>
+        <v>4080315.117426777</v>
       </c>
       <c r="E38" t="n">
-        <v>3104376.689308789</v>
+        <v>3576372.775630868</v>
       </c>
       <c r="F38" t="n">
-        <v>3441596.747778879</v>
+        <v>4000174.567686273</v>
       </c>
       <c r="G38" t="n">
-        <v>2816742.359634798</v>
+        <v>3219780.886209685</v>
       </c>
       <c r="H38" t="n">
-        <v>2178332.906507182</v>
+        <v>3734203.566326108</v>
       </c>
       <c r="I38" t="n">
-        <v>3371573.248367364</v>
+        <v>3524767.636393428</v>
       </c>
       <c r="J38" t="n">
-        <v>3522582.69876416</v>
+        <v>3749751.521311805</v>
       </c>
       <c r="K38" t="n">
-        <v>1922233.640924869</v>
+        <v>4146616.667605763</v>
       </c>
       <c r="L38" t="n">
-        <v>2369803.031315207</v>
+        <v>3976704.675008042</v>
       </c>
       <c r="M38" t="n">
-        <v>3313346.046940979</v>
+        <v>4080185.347636779</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>ОПП Мурманск</t>
+          <t>Магазин Нижневартовск</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>3539094.740514507</v>
+        <v>5132350.632852511</v>
       </c>
       <c r="C39" t="n">
-        <v>3766497.748845782</v>
+        <v>5143859.761010352</v>
       </c>
       <c r="D39" t="n">
-        <v>3579173.568848525</v>
+        <v>5580353.124955224</v>
       </c>
       <c r="E39" t="n">
-        <v>4818973.21646018</v>
+        <v>4657016.614684728</v>
       </c>
       <c r="F39" t="n">
-        <v>4415008.520228198</v>
+        <v>4604329.518341827</v>
       </c>
       <c r="G39" t="n">
-        <v>4638173.728581176</v>
+        <v>4239157.633082132</v>
       </c>
       <c r="H39" t="n">
-        <v>3902239.333462636</v>
+        <v>4412391.591516734</v>
       </c>
       <c r="I39" t="n">
-        <v>3519439.033930984</v>
+        <v>4912799.519682345</v>
       </c>
       <c r="J39" t="n">
-        <v>3854407.201747863</v>
+        <v>5153176.336422265</v>
       </c>
       <c r="K39" t="n">
-        <v>4074764.763194959</v>
+        <v>5361912.94214101</v>
       </c>
       <c r="L39" t="n">
-        <v>4327754.911698509</v>
+        <v>5447524.857787666</v>
       </c>
       <c r="M39" t="n">
-        <v>4517639.796028402</v>
+        <v>5461352.852794387</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>ОПП Нижний Новгород</t>
+          <t>Магазин НКЗ</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>11491582.39127935</v>
+        <v>5432825.938016883</v>
       </c>
       <c r="C40" t="n">
-        <v>11275027.11727284</v>
+        <v>5383072.976430305</v>
       </c>
       <c r="D40" t="n">
-        <v>12669942.42424707</v>
+        <v>5751300.325330407</v>
       </c>
       <c r="E40" t="n">
-        <v>14521108.77655631</v>
+        <v>5181374.793418322</v>
       </c>
       <c r="F40" t="n">
-        <v>13489719.61529359</v>
+        <v>5553190.301530028</v>
       </c>
       <c r="G40" t="n">
-        <v>13717791.88640334</v>
+        <v>4675977.562216966</v>
       </c>
       <c r="H40" t="n">
-        <v>11250904.05540244</v>
+        <v>4933067.189051967</v>
       </c>
       <c r="I40" t="n">
-        <v>12471830.20520048</v>
+        <v>5523628.234003149</v>
       </c>
       <c r="J40" t="n">
-        <v>12495046.18570905</v>
+        <v>5618580.382114373</v>
       </c>
       <c r="K40" t="n">
-        <v>13854880.07425282</v>
+        <v>5476778.70582914</v>
       </c>
       <c r="L40" t="n">
-        <v>12127767.2909233</v>
+        <v>5778782.291395567</v>
       </c>
       <c r="M40" t="n">
-        <v>14197307.81976418</v>
+        <v>5476797.733026975</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>ОПП НКЗ</t>
+          <t>Магазин НН Бурнаковский</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>8038450.219263927</v>
+        <v>3098334.973504984</v>
       </c>
       <c r="C41" t="n">
-        <v>12234670.67096333</v>
+        <v>3143013.683171669</v>
       </c>
       <c r="D41" t="n">
-        <v>10513841.28983629</v>
+        <v>3234713.767110356</v>
       </c>
       <c r="E41" t="n">
-        <v>8154293.599939577</v>
+        <v>2756951.454523334</v>
       </c>
       <c r="F41" t="n">
-        <v>7719811.79822547</v>
+        <v>3309628.373420185</v>
       </c>
       <c r="G41" t="n">
-        <v>7750732.462636495</v>
+        <v>2669131.267503127</v>
       </c>
       <c r="H41" t="n">
-        <v>4405672.523210078</v>
+        <v>2482074.294358059</v>
       </c>
       <c r="I41" t="n">
-        <v>6567954.759306042</v>
+        <v>2924068.398447471</v>
       </c>
       <c r="J41" t="n">
-        <v>6130907.596001545</v>
+        <v>3158483.905393645</v>
       </c>
       <c r="K41" t="n">
-        <v>6502828.827875478</v>
+        <v>2718073.121715616</v>
       </c>
       <c r="L41" t="n">
-        <v>5607701.97366841</v>
+        <v>3039970.598212935</v>
       </c>
       <c r="M41" t="n">
-        <v>7090413.354352424</v>
+        <v>3225143.87485032</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>ОПП СПб Пром</t>
+          <t>Магазин НН Ларина</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>10255836.05206625</v>
+        <v>4151800.117381617</v>
       </c>
       <c r="C42" t="n">
-        <v>9141561.761221804</v>
+        <v>4628468.217920089</v>
       </c>
       <c r="D42" t="n">
-        <v>9903419.092344938</v>
+        <v>4558832.113235858</v>
       </c>
       <c r="E42" t="n">
-        <v>10006419.70409403</v>
+        <v>4287178.448626434</v>
       </c>
       <c r="F42" t="n">
-        <v>9743260.291687781</v>
+        <v>4064191.402823751</v>
       </c>
       <c r="G42" t="n">
-        <v>12088315.30715292</v>
+        <v>3176102.664625806</v>
       </c>
       <c r="H42" t="n">
-        <v>7875039.423993697</v>
+        <v>3483753.425495124</v>
       </c>
       <c r="I42" t="n">
-        <v>10057262.97607292</v>
+        <v>3846749.273812226</v>
       </c>
       <c r="J42" t="n">
-        <v>10671707.39012276</v>
+        <v>3866677.665582094</v>
       </c>
       <c r="K42" t="n">
-        <v>11306514.79624084</v>
+        <v>3902319.643554238</v>
       </c>
       <c r="L42" t="n">
-        <v>8756236.411345486</v>
+        <v>3986380.659288409</v>
       </c>
       <c r="M42" t="n">
-        <v>9972539.498769684</v>
+        <v>4091795.164111983</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>ОПП СПб Север Авто</t>
+          <t>Магазин СПб Богатырский</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>5808611.895253316</v>
+        <v>2920857.111802346</v>
       </c>
       <c r="C43" t="n">
-        <v>4943079.874880813</v>
+        <v>3046364.421837388</v>
       </c>
       <c r="D43" t="n">
-        <v>6472913.84795313</v>
+        <v>3060680.842381691</v>
       </c>
       <c r="E43" t="n">
-        <v>6316121.43068668</v>
+        <v>3358270.005011913</v>
       </c>
       <c r="F43" t="n">
-        <v>5767201.780413949</v>
+        <v>3165593.226644751</v>
       </c>
       <c r="G43" t="n">
-        <v>6554524.344372904</v>
+        <v>2441247.468819515</v>
       </c>
       <c r="H43" t="n">
-        <v>4444874.050018211</v>
+        <v>2258681.576943229</v>
       </c>
       <c r="I43" t="n">
-        <v>5141554.372465584</v>
+        <v>3112084.00161976</v>
       </c>
       <c r="J43" t="n">
-        <v>6508028.921016449</v>
+        <v>2847290.746341094</v>
       </c>
       <c r="K43" t="n">
-        <v>5711369.742839212</v>
+        <v>2875784.006668187</v>
       </c>
       <c r="L43" t="n">
-        <v>4229608.052245205</v>
+        <v>3027486.438458628</v>
       </c>
       <c r="M43" t="n">
-        <v>4707734.445123683</v>
+        <v>3066510.371584087</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>ОПП СПб Юг Авто</t>
+          <t>Магазин СПб Софийская</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>13682900.59899476</v>
+        <v>5096732.230806192</v>
       </c>
       <c r="C44" t="n">
-        <v>15483884.63442038</v>
+        <v>5930928.033182286</v>
       </c>
       <c r="D44" t="n">
-        <v>14833812.15199626</v>
+        <v>5451504.849037671</v>
       </c>
       <c r="E44" t="n">
-        <v>14927446.89451979</v>
+        <v>5201595.619866499</v>
       </c>
       <c r="F44" t="n">
-        <v>13841634.24008929</v>
+        <v>6017704.831832766</v>
       </c>
       <c r="G44" t="n">
-        <v>15824824.41807194</v>
+        <v>4465097.242570957</v>
       </c>
       <c r="H44" t="n">
-        <v>13146140.817896</v>
+        <v>4809912.782414262</v>
       </c>
       <c r="I44" t="n">
-        <v>15148994.56337572</v>
+        <v>5498340.993535707</v>
       </c>
       <c r="J44" t="n">
-        <v>15051770.90582904</v>
+        <v>4925305.49592816</v>
       </c>
       <c r="K44" t="n">
-        <v>13829488.25209707</v>
+        <v>4682054.32326766</v>
       </c>
       <c r="L44" t="n">
-        <v>14762365.4913849</v>
+        <v>5204425.818443735</v>
       </c>
       <c r="M44" t="n">
-        <v>13896048.8798052</v>
+        <v>5865768.664220401</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>ОПП Сургут</t>
+          <t>Магазин СПб Энергетиков</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>6401143.715080393</v>
+        <v>3141099.818320058</v>
       </c>
       <c r="C45" t="n">
-        <v>5929381.105938026</v>
+        <v>3539343.378849991</v>
       </c>
       <c r="D45" t="n">
-        <v>5288797.811135213</v>
+        <v>3106663.527767966</v>
       </c>
       <c r="E45" t="n">
-        <v>5632393.836690704</v>
+        <v>3142993.088890066</v>
       </c>
       <c r="F45" t="n">
-        <v>5423967.913480687</v>
+        <v>3144500.565585592</v>
       </c>
       <c r="G45" t="n">
-        <v>6318660.600879299</v>
+        <v>2546150.132551395</v>
       </c>
       <c r="H45" t="n">
-        <v>5388341.791666117</v>
+        <v>2790958.182038553</v>
       </c>
       <c r="I45" t="n">
-        <v>6037734.874614934</v>
+        <v>3091402.467006231</v>
       </c>
       <c r="J45" t="n">
-        <v>6359250.540959412</v>
+        <v>3149593.10917849</v>
       </c>
       <c r="K45" t="n">
-        <v>5713795.782123504</v>
+        <v>2921173.346611698</v>
       </c>
       <c r="L45" t="n">
-        <v>5269633.122982127</v>
+        <v>2888600.275358482</v>
       </c>
       <c r="M45" t="n">
-        <v>5110478.515002859</v>
+        <v>3192072.596337333</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>ОПП Хабаровск</t>
+          <t>Магазин Сургут</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>15858032.76927247</v>
+        <v>2163185.955132176</v>
       </c>
       <c r="C46" t="n">
-        <v>12663214.1170736</v>
+        <v>2220395.208165738</v>
       </c>
       <c r="D46" t="n">
-        <v>10856751.32932823</v>
+        <v>2482292.339406392</v>
       </c>
       <c r="E46" t="n">
-        <v>10530419.26200476</v>
+        <v>1861242.365975148</v>
       </c>
       <c r="F46" t="n">
-        <v>11196150.21714117</v>
+        <v>2125939.949553646</v>
       </c>
       <c r="G46" t="n">
-        <v>14538222.84006625</v>
+        <v>1703266.605192931</v>
       </c>
       <c r="H46" t="n">
-        <v>10566205.99726329</v>
+        <v>1969792.580980935</v>
       </c>
       <c r="I46" t="n">
-        <v>13545672.21198066</v>
+        <v>2585736.534411397</v>
       </c>
       <c r="J46" t="n">
-        <v>12710384.48635385</v>
+        <v>1969009.253045355</v>
       </c>
       <c r="K46" t="n">
-        <v>13492522.6277546</v>
+        <v>2177058.953822962</v>
       </c>
       <c r="L46" t="n">
-        <v>10257523.83317576</v>
+        <v>2041586.564144289</v>
       </c>
       <c r="M46" t="n">
-        <v>12770598.44113106</v>
+        <v>2097218.664069157</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>Магазин Владивосток</t>
+          <t>Магазин Сургут 2</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>2250631.458677274</v>
+        <v>1604477.229570748</v>
       </c>
       <c r="C47" t="n">
-        <v>2236462.169389577</v>
+        <v>1610142.423009795</v>
       </c>
       <c r="D47" t="n">
-        <v>2228487.119879378</v>
+        <v>1657808.567158902</v>
       </c>
       <c r="E47" t="n">
-        <v>2135447.491046601</v>
+        <v>1511329.316049619</v>
       </c>
       <c r="F47" t="n">
-        <v>2157838.93887806</v>
+        <v>1499542.850092993</v>
       </c>
       <c r="G47" t="n">
-        <v>2129643.480726493</v>
+        <v>1541952.653734893</v>
       </c>
       <c r="H47" t="n">
-        <v>2141230.0291609</v>
+        <v>1578872.792017443</v>
       </c>
       <c r="I47" t="n">
-        <v>2112250.183242721</v>
+        <v>1712831.002881142</v>
       </c>
       <c r="J47" t="n">
-        <v>2274580.625014466</v>
+        <v>1919211.413473615</v>
       </c>
       <c r="K47" t="n">
-        <v>2366570.575683041</v>
+        <v>1975711.042801374</v>
       </c>
       <c r="L47" t="n">
-        <v>2352387.489930645</v>
+        <v>1762456.042163177</v>
       </c>
       <c r="M47" t="n">
-        <v>2438654.109613392</v>
+        <v>1831574.797235061</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>Магазин Воронеж</t>
+          <t>Магазин Хабаровск Индустриальный</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>738347.0565987743</v>
+        <v>5795904.308242726</v>
       </c>
       <c r="C48" t="n">
-        <v>678569.3873796127</v>
+        <v>6153219.343619455</v>
       </c>
       <c r="D48" t="n">
-        <v>629462.4807120498</v>
+        <v>6491092.131408507</v>
       </c>
       <c r="E48" t="n">
-        <v>585356.1131037325</v>
+        <v>6359118.388090141</v>
       </c>
       <c r="F48" t="n">
-        <v>552519.3468468151</v>
+        <v>6660325.843159972</v>
       </c>
       <c r="G48" t="n">
-        <v>785576.2875954615</v>
+        <v>6425839.208299192</v>
       </c>
       <c r="H48" t="n">
-        <v>513206.2728217499</v>
+        <v>6800479.294993963</v>
       </c>
       <c r="I48" t="n">
-        <v>474028.4056936674</v>
+        <v>7048457.20856886</v>
       </c>
       <c r="J48" t="n">
-        <v>426847.5312451275</v>
+        <v>7346552.714631914</v>
       </c>
       <c r="K48" t="n">
-        <v>495948.0519251218</v>
+        <v>7345881.164763492</v>
       </c>
       <c r="L48" t="n">
-        <v>370278.8234214339</v>
+        <v>7319660.176533965</v>
       </c>
       <c r="M48" t="n">
-        <v>300616.3618520456</v>
+        <v>7550425.485188626</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>Магазин Казань / ПВЗ Казань</t>
+          <t>ПВЗ Инфор</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>645173.006039691</v>
+        <v>602598.3469408167</v>
       </c>
       <c r="C49" t="n">
-        <v>583276.5592909014</v>
+        <v>676106.3798874108</v>
       </c>
       <c r="D49" t="n">
-        <v>756404.3207487776</v>
+        <v>546945.6119860332</v>
       </c>
       <c r="E49" t="n">
-        <v>805182.926687685</v>
+        <v>562731.8295790504</v>
       </c>
       <c r="F49" t="n">
-        <v>862493.0768288425</v>
+        <v>592656.5551272581</v>
       </c>
       <c r="G49" t="n">
-        <v>831362.0067292664</v>
+        <v>509814.8921804913</v>
       </c>
       <c r="H49" t="n">
-        <v>545326.8125754417</v>
+        <v>633985.43019122</v>
       </c>
       <c r="I49" t="n">
-        <v>749159.0157807127</v>
+        <v>817431.7679568126</v>
       </c>
       <c r="J49" t="n">
-        <v>876956.4395904989</v>
+        <v>834880.9160866102</v>
       </c>
       <c r="K49" t="n">
-        <v>748599.2480935736</v>
+        <v>664808.715608866</v>
       </c>
       <c r="L49" t="n">
-        <v>636206.5715932598</v>
+        <v>659636.7591994801</v>
       </c>
       <c r="M49" t="n">
-        <v>659137.0949558257</v>
+        <v>694810.169148338</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>Магазин Кемерово</t>
+          <t>ПВЗ СПб 4 (Маршал на Северном)</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>1622262.535441201</v>
+        <v>2882381.50531238</v>
       </c>
       <c r="C50" t="n">
-        <v>1615490.795871448</v>
+        <v>2879738.170433055</v>
       </c>
       <c r="D50" t="n">
-        <v>1812372.732483502</v>
+        <v>2888489.447434275</v>
       </c>
       <c r="E50" t="n">
-        <v>1807212.399700472</v>
+        <v>2987696.048449087</v>
       </c>
       <c r="F50" t="n">
-        <v>1707814.327778263</v>
+        <v>3119737.42037812</v>
       </c>
       <c r="G50" t="n">
-        <v>1827892.463467054</v>
+        <v>2946901.174353634</v>
       </c>
       <c r="H50" t="n">
-        <v>1568908.071966282</v>
+        <v>3055052.91759276</v>
       </c>
       <c r="I50" t="n">
-        <v>1647028.503469355</v>
+        <v>3188749.256335982</v>
       </c>
       <c r="J50" t="n">
-        <v>1840198.627187704</v>
+        <v>3387809.146395935</v>
       </c>
       <c r="K50" t="n">
-        <v>1935327.200265734</v>
+        <v>3404219.717997051</v>
       </c>
       <c r="L50" t="n">
-        <v>1809401.293929728</v>
+        <v>3735818.751137508</v>
       </c>
       <c r="M50" t="n">
-        <v>1879352.450749846</v>
+        <v>3583152.207432269</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>Магазин Краснодар</t>
+          <t>ПВЗ СПб 5 (Маршал на Жукова)</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>2516959.420091714</v>
+        <v>2967256.466952772</v>
       </c>
       <c r="C51" t="n">
-        <v>2455411.833452067</v>
+        <v>3134906.44101482</v>
       </c>
       <c r="D51" t="n">
-        <v>2356092.276678071</v>
+        <v>3193689.148922957</v>
       </c>
       <c r="E51" t="n">
-        <v>2336673.421719332</v>
+        <v>3264605.022198739</v>
       </c>
       <c r="F51" t="n">
-        <v>2214287.230809849</v>
+        <v>3281436.311005315</v>
       </c>
       <c r="G51" t="n">
-        <v>2289004.878327648</v>
+        <v>3193040.515418567</v>
       </c>
       <c r="H51" t="n">
-        <v>2256184.766846533</v>
+        <v>3377149.511206697</v>
       </c>
       <c r="I51" t="n">
-        <v>2163473.534798987</v>
+        <v>3450191.27756671</v>
       </c>
       <c r="J51" t="n">
-        <v>2331027.331300258</v>
+        <v>3781472.18013384</v>
       </c>
       <c r="K51" t="n">
-        <v>2386684.425617282</v>
+        <v>3756775.698489069</v>
       </c>
       <c r="L51" t="n">
-        <v>2220080.613308097</v>
+        <v>3778016.720679992</v>
       </c>
       <c r="M51" t="n">
-        <v>2621397.274749996</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="1" t="inlineStr">
-        <is>
-          <t>Магазин Красноярск 1</t>
-        </is>
-      </c>
-      <c r="B52" t="n">
-        <v>2503440.542529281</v>
-      </c>
-      <c r="C52" t="n">
-        <v>2835253.014613288</v>
-      </c>
-      <c r="D52" t="n">
-        <v>2007787.513187483</v>
-      </c>
-      <c r="E52" t="n">
-        <v>2794880.724991418</v>
-      </c>
-      <c r="F52" t="n">
-        <v>2333745.010642301</v>
-      </c>
-      <c r="G52" t="n">
-        <v>2709143.72155244</v>
-      </c>
-      <c r="H52" t="n">
-        <v>2203688.018052856</v>
-      </c>
-      <c r="I52" t="n">
-        <v>2061048.608783059</v>
-      </c>
-      <c r="J52" t="n">
-        <v>2298839.458927987</v>
-      </c>
-      <c r="K52" t="n">
-        <v>2251868.807761782</v>
-      </c>
-      <c r="L52" t="n">
-        <v>2455860.028269554</v>
-      </c>
-      <c r="M52" t="n">
-        <v>2564607.985088238</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="1" t="inlineStr">
-        <is>
-          <t>Магазин МСК 3</t>
-        </is>
-      </c>
-      <c r="B53" t="n">
-        <v>1420840.736605006</v>
-      </c>
-      <c r="C53" t="n">
-        <v>1343688.98112969</v>
-      </c>
-      <c r="D53" t="n">
-        <v>1471658.481853998</v>
-      </c>
-      <c r="E53" t="n">
-        <v>1614724.724669951</v>
-      </c>
-      <c r="F53" t="n">
-        <v>1446849.676036331</v>
-      </c>
-      <c r="G53" t="n">
-        <v>1418657.826147744</v>
-      </c>
-      <c r="H53" t="n">
-        <v>1282805.692971184</v>
-      </c>
-      <c r="I53" t="n">
-        <v>1357810.695593133</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1688621.214445644</v>
-      </c>
-      <c r="K53" t="n">
-        <v>1465128.778692387</v>
-      </c>
-      <c r="L53" t="n">
-        <v>1414608.538472977</v>
-      </c>
-      <c r="M53" t="n">
-        <v>1330778.683878247</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="1" t="inlineStr">
-        <is>
-          <t>Магазин МСК Балашиха</t>
-        </is>
-      </c>
-      <c r="B54" t="n">
-        <v>1697307.664797388</v>
-      </c>
-      <c r="C54" t="n">
-        <v>1449904.287674848</v>
-      </c>
-      <c r="D54" t="n">
-        <v>1574527.846019909</v>
-      </c>
-      <c r="E54" t="n">
-        <v>1722637.440812717</v>
-      </c>
-      <c r="F54" t="n">
-        <v>1434447.587416573</v>
-      </c>
-      <c r="G54" t="n">
-        <v>1506278.350043421</v>
-      </c>
-      <c r="H54" t="n">
-        <v>1469584.680197607</v>
-      </c>
-      <c r="I54" t="n">
-        <v>1807987.786959471</v>
-      </c>
-      <c r="J54" t="n">
-        <v>1724771.385958664</v>
-      </c>
-      <c r="K54" t="n">
-        <v>1714569.123866595</v>
-      </c>
-      <c r="L54" t="n">
-        <v>1659595.610269852</v>
-      </c>
-      <c r="M54" t="n">
-        <v>1878735.296022425</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="1" t="inlineStr">
-        <is>
-          <t>Магазин МСК Кунцево</t>
-        </is>
-      </c>
-      <c r="B55" t="n">
-        <v>4503558.443031939</v>
-      </c>
-      <c r="C55" t="n">
-        <v>4661108.452066418</v>
-      </c>
-      <c r="D55" t="n">
-        <v>4161227.781800619</v>
-      </c>
-      <c r="E55" t="n">
-        <v>4997777.094309542</v>
-      </c>
-      <c r="F55" t="n">
-        <v>4498246.571364839</v>
-      </c>
-      <c r="G55" t="n">
-        <v>3996951.620146221</v>
-      </c>
-      <c r="H55" t="n">
-        <v>3333011.705953474</v>
-      </c>
-      <c r="I55" t="n">
-        <v>3424263.321599588</v>
-      </c>
-      <c r="J55" t="n">
-        <v>4573105.134762716</v>
-      </c>
-      <c r="K55" t="n">
-        <v>3969270.624609569</v>
-      </c>
-      <c r="L55" t="n">
-        <v>3501060.589037282</v>
-      </c>
-      <c r="M55" t="n">
-        <v>3971149.78431052</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="1" t="inlineStr">
-        <is>
-          <t>Магазин Мурманск</t>
-        </is>
-      </c>
-      <c r="B56" t="n">
-        <v>3756092.186888071</v>
-      </c>
-      <c r="C56" t="n">
-        <v>3707715.147384251</v>
-      </c>
-      <c r="D56" t="n">
-        <v>4068808.03646846</v>
-      </c>
-      <c r="E56" t="n">
-        <v>4083691.505546367</v>
-      </c>
-      <c r="F56" t="n">
-        <v>3579681.72172742</v>
-      </c>
-      <c r="G56" t="n">
-        <v>4003417.421435911</v>
-      </c>
-      <c r="H56" t="n">
-        <v>3222958.970256926</v>
-      </c>
-      <c r="I56" t="n">
-        <v>3737318.176877482</v>
-      </c>
-      <c r="J56" t="n">
-        <v>3527820.043696454</v>
-      </c>
-      <c r="K56" t="n">
-        <v>3752742.970215784</v>
-      </c>
-      <c r="L56" t="n">
-        <v>4149548.378040033</v>
-      </c>
-      <c r="M56" t="n">
-        <v>3979577.842481362</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="1" t="inlineStr">
-        <is>
-          <t>Магазин Нижневартовск</t>
-        </is>
-      </c>
-      <c r="B57" t="n">
-        <v>5496887.636025412</v>
-      </c>
-      <c r="C57" t="n">
-        <v>5242339.817571606</v>
-      </c>
-      <c r="D57" t="n">
-        <v>5272127.247281435</v>
-      </c>
-      <c r="E57" t="n">
-        <v>5724906.111189145</v>
-      </c>
-      <c r="F57" t="n">
-        <v>4816021.183704594</v>
-      </c>
-      <c r="G57" t="n">
-        <v>4776092.461089169</v>
-      </c>
-      <c r="H57" t="n">
-        <v>4422107.201098834</v>
-      </c>
-      <c r="I57" t="n">
-        <v>4605084.303318187</v>
-      </c>
-      <c r="J57" t="n">
-        <v>5113894.452003132</v>
-      </c>
-      <c r="K57" t="n">
-        <v>5361438.248822331</v>
-      </c>
-      <c r="L57" t="n">
-        <v>5576215.129479598</v>
-      </c>
-      <c r="M57" t="n">
-        <v>5666835.454883963</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="1" t="inlineStr">
-        <is>
-          <t>Магазин НКЗ</t>
-        </is>
-      </c>
-      <c r="B58" t="n">
-        <v>5093385.140706389</v>
-      </c>
-      <c r="C58" t="n">
-        <v>5383774.128393947</v>
-      </c>
-      <c r="D58" t="n">
-        <v>5345169.424958905</v>
-      </c>
-      <c r="E58" t="n">
-        <v>5723774.104188194</v>
-      </c>
-      <c r="F58" t="n">
-        <v>5163503.370246702</v>
-      </c>
-      <c r="G58" t="n">
-        <v>5544191.935137768</v>
-      </c>
-      <c r="H58" t="n">
-        <v>4675166.100120513</v>
-      </c>
-      <c r="I58" t="n">
-        <v>4939675.423151429</v>
-      </c>
-      <c r="J58" t="n">
-        <v>5537003.588727229</v>
-      </c>
-      <c r="K58" t="n">
-        <v>5638114.278456539</v>
-      </c>
-      <c r="L58" t="n">
-        <v>5501837.099682502</v>
-      </c>
-      <c r="M58" t="n">
-        <v>5808727.712206858</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="1" t="inlineStr">
-        <is>
-          <t>Магазин НН Бурнаковский</t>
-        </is>
-      </c>
-      <c r="B59" t="n">
-        <v>3298554.665139211</v>
-      </c>
-      <c r="C59" t="n">
-        <v>3015148.239159403</v>
-      </c>
-      <c r="D59" t="n">
-        <v>3061492.733747561</v>
-      </c>
-      <c r="E59" t="n">
-        <v>3154825.214122088</v>
-      </c>
-      <c r="F59" t="n">
-        <v>2678662.575605861</v>
-      </c>
-      <c r="G59" t="n">
-        <v>3232907.101722703</v>
-      </c>
-      <c r="H59" t="n">
-        <v>2593946.17953219</v>
-      </c>
-      <c r="I59" t="n">
-        <v>2408394.594802616</v>
-      </c>
-      <c r="J59" t="n">
-        <v>2851863.902816492</v>
-      </c>
-      <c r="K59" t="n">
-        <v>3087725.039921886</v>
-      </c>
-      <c r="L59" t="n">
-        <v>2648730.904015169</v>
-      </c>
-      <c r="M59" t="n">
-        <v>2972016.621278133</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="1" t="inlineStr">
-        <is>
-          <t>Магазин НН Ларина</t>
-        </is>
-      </c>
-      <c r="B60" t="n">
-        <v>4072872.810150579</v>
-      </c>
-      <c r="C60" t="n">
-        <v>4189979.925464448</v>
-      </c>
-      <c r="D60" t="n">
-        <v>4702341.461970034</v>
-      </c>
-      <c r="E60" t="n">
-        <v>4666729.601731094</v>
-      </c>
-      <c r="F60" t="n">
-        <v>4427304.628062138</v>
-      </c>
-      <c r="G60" t="n">
-        <v>4234726.170293182</v>
-      </c>
-      <c r="H60" t="n">
-        <v>3375277.192011488</v>
-      </c>
-      <c r="I60" t="n">
-        <v>3709647.43559016</v>
-      </c>
-      <c r="J60" t="n">
-        <v>4097825.958328556</v>
-      </c>
-      <c r="K60" t="n">
-        <v>4141447.648281264</v>
-      </c>
-      <c r="L60" t="n">
-        <v>4199225.781199407</v>
-      </c>
-      <c r="M60" t="n">
-        <v>4303903.587255954</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="1" t="inlineStr">
-        <is>
-          <t>Магазин СПб Богатырский</t>
-        </is>
-      </c>
-      <c r="B61" t="n">
-        <v>2832924.07401851</v>
-      </c>
-      <c r="C61" t="n">
-        <v>2942380.806326556</v>
-      </c>
-      <c r="D61" t="n">
-        <v>3067437.148056553</v>
-      </c>
-      <c r="E61" t="n">
-        <v>3081312.042351561</v>
-      </c>
-      <c r="F61" t="n">
-        <v>3378468.928750096</v>
-      </c>
-      <c r="G61" t="n">
-        <v>3185368.928055533</v>
-      </c>
-      <c r="H61" t="n">
-        <v>2460608.818036195</v>
-      </c>
-      <c r="I61" t="n">
-        <v>2277637.246930302</v>
-      </c>
-      <c r="J61" t="n">
-        <v>3130642.491916553</v>
-      </c>
-      <c r="K61" t="n">
-        <v>2865460.385222254</v>
-      </c>
-      <c r="L61" t="n">
-        <v>2893572.944316892</v>
-      </c>
-      <c r="M61" t="n">
-        <v>3044902.65334664</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="1" t="inlineStr">
-        <is>
-          <t>Магазин СПб Софийская</t>
-        </is>
-      </c>
-      <c r="B62" t="n">
-        <v>5973698.771646409</v>
-      </c>
-      <c r="C62" t="n">
-        <v>5159161.645534841</v>
-      </c>
-      <c r="D62" t="n">
-        <v>5999977.043192958</v>
-      </c>
-      <c r="E62" t="n">
-        <v>5526510.063588874</v>
-      </c>
-      <c r="F62" t="n">
-        <v>5281939.381856857</v>
-      </c>
-      <c r="G62" t="n">
-        <v>6102810.731099999</v>
-      </c>
-      <c r="H62" t="n">
-        <v>4554426.748697193</v>
-      </c>
-      <c r="I62" t="n">
-        <v>4902967.05954857</v>
-      </c>
-      <c r="J62" t="n">
-        <v>5594653.535975864</v>
-      </c>
-      <c r="K62" t="n">
-        <v>5024442.085799525</v>
-      </c>
-      <c r="L62" t="n">
-        <v>4783612.995390899</v>
-      </c>
-      <c r="M62" t="n">
-        <v>5308033.052921547</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="1" t="inlineStr">
-        <is>
-          <t>Магазин СПб Энергетиков</t>
-        </is>
-      </c>
-      <c r="B63" t="n">
-        <v>3419284.578732249</v>
-      </c>
-      <c r="C63" t="n">
-        <v>3204974.663036279</v>
-      </c>
-      <c r="D63" t="n">
-        <v>3634293.195807813</v>
-      </c>
-      <c r="E63" t="n">
-        <v>3227565.962277316</v>
-      </c>
-      <c r="F63" t="n">
-        <v>3285398.653811447</v>
-      </c>
-      <c r="G63" t="n">
-        <v>3304540.849471668</v>
-      </c>
-      <c r="H63" t="n">
-        <v>2720478.446356139</v>
-      </c>
-      <c r="I63" t="n">
-        <v>2976690.297298152</v>
-      </c>
-      <c r="J63" t="n">
-        <v>3286047.47209691</v>
-      </c>
-      <c r="K63" t="n">
-        <v>3351013.965530455</v>
-      </c>
-      <c r="L63" t="n">
-        <v>3127547.668476967</v>
-      </c>
-      <c r="M63" t="n">
-        <v>3098384.825057432</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="1" t="inlineStr">
-        <is>
-          <t>Магазин Сургут</t>
-        </is>
-      </c>
-      <c r="B64" t="n">
-        <v>2159371.572207943</v>
-      </c>
-      <c r="C64" t="n">
-        <v>2146229.291518756</v>
-      </c>
-      <c r="D64" t="n">
-        <v>2212734.038412609</v>
-      </c>
-      <c r="E64" t="n">
-        <v>2481457.665548068</v>
-      </c>
-      <c r="F64" t="n">
-        <v>1865319.90631191</v>
-      </c>
-      <c r="G64" t="n">
-        <v>2133463.440941327</v>
-      </c>
-      <c r="H64" t="n">
-        <v>1713104.35111172</v>
-      </c>
-      <c r="I64" t="n">
-        <v>1981091.507812006</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2597847.746686334</v>
-      </c>
-      <c r="K64" t="n">
-        <v>1981447.023601824</v>
-      </c>
-      <c r="L64" t="n">
-        <v>2189479.968564557</v>
-      </c>
-      <c r="M64" t="n">
-        <v>2053736.847325265</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="1" t="inlineStr">
-        <is>
-          <t>Магазин Сургут 2</t>
-        </is>
-      </c>
-      <c r="B65" t="n">
-        <v>1770440.862751154</v>
-      </c>
-      <c r="C65" t="n">
-        <v>1714966.127529091</v>
-      </c>
-      <c r="D65" t="n">
-        <v>1718895.05120142</v>
-      </c>
-      <c r="E65" t="n">
-        <v>1764848.822724881</v>
-      </c>
-      <c r="F65" t="n">
-        <v>1616682.084252931</v>
-      </c>
-      <c r="G65" t="n">
-        <v>1603232.496479517</v>
-      </c>
-      <c r="H65" t="n">
-        <v>1644003.106882786</v>
-      </c>
-      <c r="I65" t="n">
-        <v>1679307.481072422</v>
-      </c>
-      <c r="J65" t="n">
-        <v>1811672.897679171</v>
-      </c>
-      <c r="K65" t="n">
-        <v>2016483.046747386</v>
-      </c>
-      <c r="L65" t="n">
-        <v>2071434.481190585</v>
-      </c>
-      <c r="M65" t="n">
-        <v>1856656.718785987</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="1" t="inlineStr">
-        <is>
-          <t>Магазин Хабаровск Индустриальный</t>
-        </is>
-      </c>
-      <c r="B66" t="n">
-        <v>4957241.272741405</v>
-      </c>
-      <c r="C66" t="n">
-        <v>5158093.767163482</v>
-      </c>
-      <c r="D66" t="n">
-        <v>5420103.667696145</v>
-      </c>
-      <c r="E66" t="n">
-        <v>5666279.408678287</v>
-      </c>
-      <c r="F66" t="n">
-        <v>5446233.307356112</v>
-      </c>
-      <c r="G66" t="n">
-        <v>5663385.401226673</v>
-      </c>
-      <c r="H66" t="n">
-        <v>5348407.577328016</v>
-      </c>
-      <c r="I66" t="n">
-        <v>5646563.227217736</v>
-      </c>
-      <c r="J66" t="n">
-        <v>5821423.509905638</v>
-      </c>
-      <c r="K66" t="n">
-        <v>6049718.343455888</v>
-      </c>
-      <c r="L66" t="n">
-        <v>5982461.9791611</v>
-      </c>
-      <c r="M66" t="n">
-        <v>5893095.405811847</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="1" t="inlineStr">
-        <is>
-          <t>ПВЗ Инфор</t>
-        </is>
-      </c>
-      <c r="B67" t="n">
-        <v>677808.1597056708</v>
-      </c>
-      <c r="C67" t="n">
-        <v>650393.4773799302</v>
-      </c>
-      <c r="D67" t="n">
-        <v>723223.1800234169</v>
-      </c>
-      <c r="E67" t="n">
-        <v>593390.1783066265</v>
-      </c>
-      <c r="F67" t="n">
-        <v>608510.8277835685</v>
-      </c>
-      <c r="G67" t="n">
-        <v>637775.231256521</v>
-      </c>
-      <c r="H67" t="n">
-        <v>554279.2546403458</v>
-      </c>
-      <c r="I67" t="n">
-        <v>677801.4467220698</v>
-      </c>
-      <c r="J67" t="n">
-        <v>860604.3882201471</v>
-      </c>
-      <c r="K67" t="n">
-        <v>877415.654582348</v>
-      </c>
-      <c r="L67" t="n">
-        <v>706711.8273806392</v>
-      </c>
-      <c r="M67" t="n">
-        <v>700914.2131410612</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="1" t="inlineStr">
-        <is>
-          <t>ПВЗ СПб 4 (Маршал на Северном)</t>
-        </is>
-      </c>
-      <c r="B68" t="n">
-        <v>2875739.00190615</v>
-      </c>
-      <c r="C68" t="n">
-        <v>2996058.275959577</v>
-      </c>
-      <c r="D68" t="n">
-        <v>3009195.639430699</v>
-      </c>
-      <c r="E68" t="n">
-        <v>3033214.082395278</v>
-      </c>
-      <c r="F68" t="n">
-        <v>3147191.086740068</v>
-      </c>
-      <c r="G68" t="n">
-        <v>3293524.988979072</v>
-      </c>
-      <c r="H68" t="n">
-        <v>3134512.480131185</v>
-      </c>
-      <c r="I68" t="n">
-        <v>3256004.537438928</v>
-      </c>
-      <c r="J68" t="n">
-        <v>3402597.876507036</v>
-      </c>
-      <c r="K68" t="n">
-        <v>3614114.687261121</v>
-      </c>
-      <c r="L68" t="n">
-        <v>3642550.254020971</v>
-      </c>
-      <c r="M68" t="n">
-        <v>3985730.201782269</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="1" t="inlineStr">
-        <is>
-          <t>ПВЗ СПб 5 (Маршал на Жукова)</t>
-        </is>
-      </c>
-      <c r="B69" t="n">
-        <v>3058452.089179523</v>
-      </c>
-      <c r="C69" t="n">
-        <v>3190450.32642596</v>
-      </c>
-      <c r="D69" t="n">
-        <v>3384334.746278874</v>
-      </c>
-      <c r="E69" t="n">
-        <v>3468039.837298249</v>
-      </c>
-      <c r="F69" t="n">
-        <v>3562509.196148414</v>
-      </c>
-      <c r="G69" t="n">
-        <v>3601589.948350776</v>
-      </c>
-      <c r="H69" t="n">
-        <v>3534148.42759104</v>
-      </c>
-      <c r="I69" t="n">
-        <v>3737917.56155764</v>
-      </c>
-      <c r="J69" t="n">
-        <v>3829529.801651155</v>
-      </c>
-      <c r="K69" t="n">
-        <v>4178178.0042045</v>
-      </c>
-      <c r="L69" t="n">
-        <v>4169787.296452256</v>
-      </c>
-      <c r="M69" t="n">
-        <v>4206043.066337569</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Ковригин  (Kz)</t>
-        </is>
-      </c>
-      <c r="B70" t="n">
-        <v>7209206.819487469</v>
-      </c>
-      <c r="C70" t="n">
-        <v>6772981.214354682</v>
-      </c>
-      <c r="D70" t="n">
-        <v>7191991.954236011</v>
-      </c>
-      <c r="E70" t="n">
-        <v>7288748.795810296</v>
-      </c>
-      <c r="F70" t="n">
-        <v>7216319.253501168</v>
-      </c>
-      <c r="G70" t="n">
-        <v>7420117.671739123</v>
-      </c>
-      <c r="H70" t="n">
-        <v>7081335.07293739</v>
-      </c>
-      <c r="I70" t="n">
-        <v>7028422.311773398</v>
-      </c>
-      <c r="J70" t="n">
-        <v>6642891.213888815</v>
-      </c>
-      <c r="K70" t="n">
-        <v>7084124.444434935</v>
-      </c>
-      <c r="L70" t="n">
-        <v>7240671.553693906</v>
-      </c>
-      <c r="M70" t="n">
-        <v>8151513.430873543</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Концевой</t>
-        </is>
-      </c>
-      <c r="B71" t="n">
-        <v>20699163.97566587</v>
-      </c>
-      <c r="C71" t="n">
-        <v>22088250.18388337</v>
-      </c>
-      <c r="D71" t="n">
-        <v>23749752.09805314</v>
-      </c>
-      <c r="E71" t="n">
-        <v>24123821.99003787</v>
-      </c>
-      <c r="F71" t="n">
-        <v>25925355.54444536</v>
-      </c>
-      <c r="G71" t="n">
-        <v>35544786.74796527</v>
-      </c>
-      <c r="H71" t="n">
-        <v>19039918.07353676</v>
-      </c>
-      <c r="I71" t="n">
-        <v>28399632.90869724</v>
-      </c>
-      <c r="J71" t="n">
-        <v>28723399.47028702</v>
-      </c>
-      <c r="K71" t="n">
-        <v>29270671.64258797</v>
-      </c>
-      <c r="L71" t="n">
-        <v>30565895.85915884</v>
-      </c>
-      <c r="M71" t="n">
-        <v>31495357.45364578</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Мараев (АлРоса)</t>
-        </is>
-      </c>
-      <c r="B72" t="n">
-        <v>3742554.807607591</v>
-      </c>
-      <c r="C72" t="n">
-        <v>2934423.552246113</v>
-      </c>
-      <c r="D72" t="n">
-        <v>3742671.864662008</v>
-      </c>
-      <c r="E72" t="n">
-        <v>2012718.369253985</v>
-      </c>
-      <c r="F72" t="n">
-        <v>3988049.648881125</v>
-      </c>
-      <c r="G72" t="n">
-        <v>2602896.837784595</v>
-      </c>
-      <c r="H72" t="n">
-        <v>2053117.026875045</v>
-      </c>
-      <c r="I72" t="n">
-        <v>4089503.770895427</v>
-      </c>
-      <c r="J72" t="n">
-        <v>4474777.387866389</v>
-      </c>
-      <c r="K72" t="n">
-        <v>2907070.986543146</v>
-      </c>
-      <c r="L72" t="n">
-        <v>6155948.586495202</v>
-      </c>
-      <c r="M72" t="n">
-        <v>2042760.809701208</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Мищенко (МетИнв)</t>
-        </is>
-      </c>
-      <c r="B73" t="n">
-        <v>9130178.627803607</v>
-      </c>
-      <c r="C73" t="n">
-        <v>8919845.76727251</v>
-      </c>
-      <c r="D73" t="n">
-        <v>8630144.094551124</v>
-      </c>
-      <c r="E73" t="n">
-        <v>9160677.722228777</v>
-      </c>
-      <c r="F73" t="n">
-        <v>8185511.817219529</v>
-      </c>
-      <c r="G73" t="n">
-        <v>8709391.951561511</v>
-      </c>
-      <c r="H73" t="n">
-        <v>8131561.945578514</v>
-      </c>
-      <c r="I73" t="n">
-        <v>9780740.610285036</v>
-      </c>
-      <c r="J73" t="n">
-        <v>10935229.32026219</v>
-      </c>
-      <c r="K73" t="n">
-        <v>9967657.20395188</v>
-      </c>
-      <c r="L73" t="n">
-        <v>10622085.11567034</v>
-      </c>
-      <c r="M73" t="n">
-        <v>9499913.751779571</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Попов</t>
-        </is>
-      </c>
-      <c r="B74" t="n">
-        <v>15995955.64389033</v>
-      </c>
-      <c r="C74" t="n">
-        <v>13567433.93000185</v>
-      </c>
-      <c r="D74" t="n">
-        <v>16347310.3322439</v>
-      </c>
-      <c r="E74" t="n">
-        <v>15716479.22958942</v>
-      </c>
-      <c r="F74" t="n">
-        <v>17028453.31940643</v>
-      </c>
-      <c r="G74" t="n">
-        <v>23004986.22588958</v>
-      </c>
-      <c r="H74" t="n">
-        <v>11030197.42158653</v>
-      </c>
-      <c r="I74" t="n">
-        <v>16961775.24813311</v>
-      </c>
-      <c r="J74" t="n">
-        <v>18776174.64507259</v>
-      </c>
-      <c r="K74" t="n">
-        <v>18277293.93533311</v>
-      </c>
-      <c r="L74" t="n">
-        <v>16734962.87033338</v>
-      </c>
-      <c r="M74" t="n">
-        <v>17243355.69435461</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Филиппов</t>
-        </is>
-      </c>
-      <c r="B75" t="n">
-        <v>23093940.23058856</v>
-      </c>
-      <c r="C75" t="n">
-        <v>23606076.20606311</v>
-      </c>
-      <c r="D75" t="n">
-        <v>22296383.74262001</v>
-      </c>
-      <c r="E75" t="n">
-        <v>22372481.3015284</v>
-      </c>
-      <c r="F75" t="n">
-        <v>22033613.14009055</v>
-      </c>
-      <c r="G75" t="n">
-        <v>28552212.75630519</v>
-      </c>
-      <c r="H75" t="n">
-        <v>20919119.38364828</v>
-      </c>
-      <c r="I75" t="n">
-        <v>22408006.25050018</v>
-      </c>
-      <c r="J75" t="n">
-        <v>24856954.81325466</v>
-      </c>
-      <c r="K75" t="n">
-        <v>25898652.67040434</v>
-      </c>
-      <c r="L75" t="n">
-        <v>26567975.44804045</v>
-      </c>
-      <c r="M75" t="n">
-        <v>28990975.17986877</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Шугай (Русал)</t>
-        </is>
-      </c>
-      <c r="B76" t="n">
-        <v>14583695.75099442</v>
-      </c>
-      <c r="C76" t="n">
-        <v>14955555.96520673</v>
-      </c>
-      <c r="D76" t="n">
-        <v>15305095.14595078</v>
-      </c>
-      <c r="E76" t="n">
-        <v>15700964.07201319</v>
-      </c>
-      <c r="F76" t="n">
-        <v>15782202.88876398</v>
-      </c>
-      <c r="G76" t="n">
-        <v>16158640.12370732</v>
-      </c>
-      <c r="H76" t="n">
-        <v>15435624.09619566</v>
-      </c>
-      <c r="I76" t="n">
-        <v>15391913.90250995</v>
-      </c>
-      <c r="J76" t="n">
-        <v>16431347.24986853</v>
-      </c>
-      <c r="K76" t="n">
-        <v>17677618.59582076</v>
-      </c>
-      <c r="L76" t="n">
-        <v>18412183.19973608</v>
-      </c>
-      <c r="M76" t="n">
-        <v>18294468.47841961</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Ясиновер (УГМК)</t>
-        </is>
-      </c>
-      <c r="B77" t="n">
-        <v>17887706.48751613</v>
-      </c>
-      <c r="C77" t="n">
-        <v>18818374.74624921</v>
-      </c>
-      <c r="D77" t="n">
-        <v>20260248.45196892</v>
-      </c>
-      <c r="E77" t="n">
-        <v>21847975.2117436</v>
-      </c>
-      <c r="F77" t="n">
-        <v>22627280.21858735</v>
-      </c>
-      <c r="G77" t="n">
-        <v>22301223.77061077</v>
-      </c>
-      <c r="H77" t="n">
-        <v>22496845.31086664</v>
-      </c>
-      <c r="I77" t="n">
-        <v>23646508.06356963</v>
-      </c>
-      <c r="J77" t="n">
-        <v>24103027.63791334</v>
-      </c>
-      <c r="K77" t="n">
-        <v>24965891.27729568</v>
-      </c>
-      <c r="L77" t="n">
-        <v>25419573.38103751</v>
-      </c>
-      <c r="M77" t="n">
-        <v>27152441.45025503</v>
+        <v>3788080.148725154</v>
       </c>
     </row>
   </sheetData>
